--- a/spreadsheet/security_checklist.es.xlsx
+++ b/spreadsheet/security_checklist.es.xlsx
@@ -1652,18 +1652,18 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Recomendaciones</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Todas las recomendaciones remediadas o deshabilitadas si no es necesario.</t>
+          <t>Si usa el proxy de aplicación de Azure AD, considere la posibilidad de integrarse con Microsoft Defender for Cloud Apps para supervisar el acceso a las aplicaciones en tiempo real y aplicar controles de seguridad avanzados.</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1703,17 +1703,13 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Puntuación de seguridad&gt;70%</t>
-        </is>
-      </c>
-      <c r="D21" s="22" t="inlineStr">
-        <is>
-          <t>El objetivo mínimo de Microsoft para todos los clientes es del 70 %</t>
-        </is>
-      </c>
+          <t>Todas las recomendaciones remediadas o deshabilitadas si no es necesario.</t>
+        </is>
+      </c>
+      <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1724,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1732,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1748,18 +1744,22 @@
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Alertas de seguridad</t>
+          <t>Recomendaciones</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Las alertas de seguridad contienen solo las generadas en las últimas 24 horas (corregir o deshabilitar las alertas de seguridad más antiguas)</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="n"/>
+          <t>Puntuación de seguridad&gt;70%</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>El objetivo mínimo de Microsoft para todos los clientes es del 70 %</t>
+        </is>
+      </c>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1770,7 +1770,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1778,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1794,12 +1794,12 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Libros</t>
+          <t>Alertas de seguridad</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Si la exportación continua está habilitada, los libros predeterminados se publican en el panel de seguridad personalizado</t>
+          <t>Las alertas de seguridad contienen solo las generadas en las últimas 24 horas (corregir o deshabilitar las alertas de seguridad más antiguas)</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1816,7 +1816,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1824,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Comunidad</t>
+          <t>Libros</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>El cliente es consciente del valor de la página 'Comunidad' y tiene una cadencia regular configurada para revisar</t>
+          <t>Si la exportación continua está habilitada, los libros predeterminados se publican en el panel de seguridad personalizado</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1862,7 +1862,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1870,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1886,22 +1886,18 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Puntuación segura</t>
+          <t>Comunidad</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Se muestran todas las suscripciones protegidas por Security Center (sin filtro de suscripción establecido)</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente - Transparencia</t>
-        </is>
-      </c>
+          <t>El cliente es consciente del valor de la página 'Comunidad' y tiene una cadencia regular configurada para revisar</t>
+        </is>
+      </c>
+      <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1912,7 +1908,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1936,15 +1932,19 @@
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Cumplimiento normativo</t>
+          <t>Puntuación segura</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Los controles de cumplimiento son ecológicos para cualquier requisito de cumplimiento requerido</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="n"/>
+          <t>Se muestran todas las suscripciones protegidas por Security Center (sin filtro de suscripción establecido)</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas del cliente - Transparencia</t>
+        </is>
+      </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1958,7 +1958,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1966,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1982,19 +1982,15 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Cumplimiento normativo</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Las vulnerabilidades de VM de alta gravedad son cero (vacías)</t>
-        </is>
-      </c>
-      <c r="D27" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>Los controles de cumplimiento son ecológicos para cualquier requisito de cumplimiento requerido</t>
+        </is>
+      </c>
+      <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2008,14 +2004,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2031,18 +2027,22 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Los concentradores están protegidos por un Firewall de Azure</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="n"/>
+          <t>Las vulnerabilidades de VM de alta gravedad son cero (vacías)</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2053,14 +2053,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2081,14 +2081,10 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Las redes virtuales están protegidas por un firewall</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>Los concentradores están protegidos por un Firewall de Azure</t>
+        </is>
+      </c>
+      <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2102,14 +2098,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2130,10 +2126,14 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>DDoS Standard habilitado</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>Las redes virtuales están protegidas por un firewall</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2147,14 +2147,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2170,18 +2170,18 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Cobertura</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Verifique que todas las suscripciones estén cubiertas (consulte los precios y la configuración para modificar)</t>
+          <t>DDoS Standard habilitado</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2192,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2210,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>IP públicas</t>
+          <t>Cobertura</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las máquinas virtuales con IP públicas deben estar protegidas por NSG </t>
+          <t>Verifique que todas las suscripciones estén cubiertas (consulte los precios y la configuración para modificar)</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2237,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2245,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2266,14 +2266,10 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales con direcciones IP públicas se mueven detrás de Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D33" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Las máquinas virtuales con IP públicas deben estar protegidas por NSG </t>
+        </is>
+      </c>
+      <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2295,7 +2291,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2316,7 +2312,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales que no necesitan DIRECCIONES IP públicas no tienen IP públicas (es decir, solo RDP interno)</t>
+          <t>Las máquinas virtuales con direcciones IP públicas se mueven detrás de Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
@@ -2337,7 +2333,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2345,7 +2341,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2361,18 +2357,22 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>IP públicas</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="n"/>
+          <t>Las máquinas virtuales que no necesitan DIRECCIONES IP públicas no tienen IP públicas (es decir, solo RDP interno)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2383,7 +2383,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2391,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2412,17 +2412,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Las reglas de seguridad de entrada de NSG no contienen un * (comodín) en el campo Origen</t>
-        </is>
-      </c>
-      <c r="D36" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>NSG RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2441,7 +2437,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2462,7 +2458,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Las reglas de seguridad salientes de NSG se utilizan para controlar el tráfico a direcciones IP específicas para el tráfico no enrutado a través de un firewall</t>
+          <t>Las reglas de seguridad de entrada de NSG no contienen un * (comodín) en el campo Origen</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
@@ -2472,7 +2468,7 @@
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2491,7 +2487,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2512,7 +2508,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSG no tiene Source como * (comodín) en su lugar.</t>
+          <t>Las reglas de seguridad salientes de NSG se utilizan para controlar el tráfico a direcciones IP específicas para el tráfico no enrutado a través de un firewall</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
@@ -2522,7 +2518,7 @@
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2541,7 +2537,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2562,13 +2558,17 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Los diagnósticos de NSG envían el tráfico NetworkSecurityGroupEvent y NetworkSecurityGroupRuleCounter a Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D39" s="22" t="n"/>
+          <t>NSG no tiene Source como * (comodín) en su lugar.</t>
+        </is>
+      </c>
+      <c r="D39" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2587,7 +2587,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2603,12 +2603,12 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>NSG</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>Los diagnósticos de NSG envían el tráfico NetworkSecurityGroupEvent y NetworkSecurityGroupRuleCounter a Sentinel LAW</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2633,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2654,13 +2654,13 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Si Zero Trust, los UDR se usan para enviar todo el tráfico a Azure Firewall Premium</t>
+          <t>UDR RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2679,7 +2679,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2700,17 +2700,13 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Los UDR que no envían todo el tráfico a AzureFirewallPremium son conocidos y documentados.</t>
-        </is>
-      </c>
-      <c r="D42" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>Si Zero Trust, los UDR se usan para enviar todo el tráfico a Azure Firewall Premium</t>
+        </is>
+      </c>
+      <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2729,7 +2725,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2745,18 +2741,22 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>El cliente está familiarizado con los valores predeterminados de red de Azure / enrutamiento predeterminado de SDN en Azure</t>
-        </is>
-      </c>
-      <c r="D43" s="22" t="n"/>
+          <t>Los UDR que no envían todo el tráfico a AzureFirewallPremium son conocidos y documentados.</t>
+        </is>
+      </c>
+      <c r="D43" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2767,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2775,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2796,17 +2796,13 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>RBAC de red virtual se usa para restringir el acceso al equipo de seguridad de red</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>El cliente está familiarizado con los valores predeterminados de red de Azure / enrutamiento predeterminado de SDN en Azure</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2817,7 +2813,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2825,7 +2821,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2846,13 +2842,17 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las recomendaciones de seguridad de la red virtual se han corregido y no hay redes virtuales "en riesgo" </t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="n"/>
+          <t>RBAC de red virtual se usa para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2863,14 +2863,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Se comprenden las conexiones de emparejamiento de red virtual y se documentan los flujos de tráfico esperados</t>
+          <t xml:space="preserve">Las recomendaciones de seguridad de la red virtual se han corregido y no hay redes virtuales "en riesgo" </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2908,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2916,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Los extremos de servicio de red virtual están en uso, no existen extremos de servicio público heredados</t>
+          <t>Se comprenden las conexiones de emparejamiento de red virtual y se documentan los flujos de tráfico esperados</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2954,7 +2954,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2962,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Los endpoings privados de red virtual están en uso para permitir el acceso desde entornos locales, no existen extremos públicos heredados</t>
+          <t>Los extremos de servicio de red virtual están en uso, no existen extremos de servicio público heredados</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +3000,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Supervisión de red virtual habilitada</t>
+          <t>Los endpoings privados de red virtual están en uso para permitir el acceso desde entornos locales, no existen extremos públicos heredados</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3045,14 +3045,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>VNet Kubernetes: cubierto por Security Center</t>
+          <t>Supervisión de red virtual habilitada</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3090,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3098,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>El cliente de VNet NVA (dispositivos) sigue el patrón de arquitectura publicado</t>
+          <t>VNet Kubernetes: cubierto por Security Center</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3136,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3144,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>La configuración de diagnóstico de red virtual está habilitada y envía VMProtectionAlerts a Azure Sentinel LAW</t>
+          <t>El cliente de VNet NVA (dispositivos) sigue el patrón de arquitectura publicado</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3182,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3190,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Usar ExpressRoute o VPN para acceder a los recursos de Azure desde entornos locales</t>
+          <t>La configuración de diagnóstico de red virtual está habilitada y envía VMProtectionAlerts a Azure Sentinel LAW</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3228,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Alcance global</t>
+          <t>Conectividad</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>El cliente está utilizando Global Reach para conectarse de forma privada a servicios que se ejecutan en otras regiones</t>
+          <t>Usar ExpressRoute o VPN para acceder a los recursos de Azure desde entornos locales</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3273,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
+          <t>https://docs.microsoft.com/azure/expressroute/</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3281,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Alcance global</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>El cliente está utilizando Global Reach para conectarse de forma privada a servicios que se ejecutan en otras regiones</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3319,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>El cliente de VWAN está utilizando Secure Hub o Firewall externo para enrutar y monitorear el tráfico.</t>
+          <t>VWAN RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3364,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>El cliente de VWAN está utilizando Secure Hub o Firewall externo para enrutar y monitorear el tráfico.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3409,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos los servicios web externos están conectados a Application Gateways con WAF habilitado </t>
+          <t>AppGW RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3454,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos los servicios web internos están integrados en Application Gateways con WAF habilitado </t>
+          <t xml:space="preserve">AppGW Todos los servicios web externos están conectados a Application Gateways con WAF habilitado </t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3506,7 +3506,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - La cara externa tiene TLS / SSL habilitado y redirige todo el tráfico a 443 (sin tráfico del puerto 80)</t>
+          <t xml:space="preserve">AppGW Todos los servicios web internos están integrados en Application Gateways con WAF habilitado </t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3544,14 +3544,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Front Door RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>AppGW - La cara externa tiene TLS / SSL habilitado y redirige todo el tráfico a 443 (sin tráfico del puerto 80)</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3589,14 +3589,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Front Door está asociado a una política WAF</t>
+          <t>Front Door RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3634,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>La directiva TLS/SSL de puerta principal está configurada</t>
+          <t>Front Door está asociado a una política WAF</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3679,7 +3679,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3687,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>El puerto de redirección de la puerta principal 80 al puerto 443 está configurado (oyentes)</t>
+          <t>La directiva TLS/SSL de puerta principal está configurada</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3725,7 +3725,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3733,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Los registros de diagnóstico de Front Door envían ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog a Sentinel LAW</t>
+          <t>El puerto de redirección de la puerta principal 80 al puerto 443 está configurado (oyentes)</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3771,7 +3771,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3779,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Protección DDOS</t>
+          <t>Puerta frontal</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP públicas de Firewall (todas las IP públicas)</t>
+          <t>Los registros de diagnóstico de Front Door envían ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog a Sentinel LAW</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3817,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3835,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Azure Networking</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Protección DDOS</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Establezca un directorio empresarial único para administrar las identidades de los empleados a tiempo completo y los recursos empresariales.</t>
+          <t>Habilitado para IP públicas de Firewall (todas las IP públicas)</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3870,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Sincronice su identidad en la nube con sus sistemas de identidad existentes.</t>
+          <t>Establezca un directorio empresarial único para administrar las identidades de los empleados a tiempo completo y los recursos empresariales.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -3908,7 +3908,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3916,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use los servicios de identidad en la nube para hospedar cuentas que no sean de empleados, como proveedores, socios y clientes, en lugar de incluirlos en su directorio local.</t>
+          <t>Sincronice su identidad en la nube con sus sistemas de identidad existentes.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3954,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3962,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los protocolos heredados inseguros para los servicios orientados a Internet.</t>
+          <t>Use los servicios de identidad en la nube para hospedar cuentas que no sean de empleados, como proveedores, socios y clientes, en lugar de incluirlos en su directorio local.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4000,7 +4000,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4008,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el inicio de sesión único</t>
+          <t>Deshabilite los protocolos heredados inseguros para los servicios orientados a Internet.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4046,7 +4046,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4054,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>No sincronice cuentas con el acceso con privilegios más altos a los recursos locales mientras sincroniza sus sistemas de identidad empresarial con directorios en la nube.</t>
+          <t>Habilitar el inicio de sesión único</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4092,7 +4092,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limitar el número de administradores globales a menos de 5</t>
+          <t>No sincronice cuentas con el acceso con privilegios más altos a los recursos locales mientras sincroniza sus sistemas de identidad empresarial con directorios en la nube.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4138,7 +4138,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4146,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Usar grupos para asignaciones de roles de Azure AD y delegar la asignación de roles</t>
+          <t>Limitar el número de administradores globales a menos de 5</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4184,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los administradores de impacto crítico sean administrados por el directorio empresarial para seguir la aplicación de las políticas de la organización.</t>
+          <t>Usar grupos para asignaciones de roles de Azure AD y delegar la asignación de roles</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4230,7 +4230,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4238,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configurar revisiones de acceso recurrentes para revocar permisos innecesarios a lo largo del tiempo</t>
+          <t>Asegúrese de que todos los administradores de impacto crítico sean administrados por el directorio empresarial para seguir la aplicación de las políticas de la organización.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4276,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4284,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Garantice que los administradores de impacto crítico utilicen una estación de trabajo con protecciones de seguridad y supervisión elevadas</t>
+          <t>Configurar revisiones de acceso recurrentes para revocar permisos innecesarios a lo largo del tiempo</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4346,18 +4346,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Proveedores de identidad: verifique que los proveedores de identidad externos sean conocidos</t>
+          <t>Garantice que los administradores de impacto crítico utilicen una estación de trabajo con protecciones de seguridad y supervisión elevadas</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: ¿El acceso de usuario invitado se establece en '¿El acceso de usuario invitado está restringido?'</t>
+          <t>Proveedores de identidad: verifique que los proveedores de identidad externos sean conocidos</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: la configuración de invitación de invitado se establece en 'Solo usuarios asignados a roles de administrador específicos'</t>
+          <t>Configuración de colaboración externa: ¿El acceso de usuario invitado se establece en '¿El acceso de usuario invitado está restringido?'</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración de colaboración externa: habilite el registro de autoservicio de invitados a través de flujos establecidos en 'Deshabilitado' </t>
+          <t>Configuración de colaboración externa: la configuración de invitación de invitado se establece en 'Solo usuarios asignados a roles de administrador específicos'</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: restricciones de colaboración establecidas en 'Permitir invitaciones a los dominios especificados'</t>
+          <t xml:space="preserve">Configuración de colaboración externa: habilite el registro de autoservicio de invitados a través de flujos establecidos en 'Deshabilitado' </t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4581,13 +4581,13 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Revisiones de acceso: habilitado para todos los grupos</t>
+          <t>Configuración de colaboración externa: restricciones de colaboración establecidas en 'Permitir invitaciones a los dominios especificados'</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Aplicaciones empresariales</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consentimiento y permisos: permitir el consentimiento del usuario para aplicaciones de editores verificados</t>
+          <t>Revisiones de acceso: habilitado para todos los grupos</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consentimiento y permisos: Permitir el consentimiento del propietario del grupo para los propietarios de grupos seleccionados </t>
+          <t>Consentimiento y permisos: permitir el consentimiento del usuario para aplicaciones de editores verificados</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,18 +4714,18 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Dominios personalizados</t>
+          <t>Aplicaciones empresariales</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Solo se registran los dominios de clientes validados</t>
+          <t xml:space="preserve">Consentimiento y permisos: Permitir el consentimiento del propietario del grupo para los propietarios de grupos seleccionados </t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Restablecimiento de contraseña</t>
+          <t>Dominios personalizados</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Requisito de directiva de restablecimiento de contraseña de autoservicio verificado conforme.</t>
+          <t>Solo se registran los dominios de clientes validados</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4811,13 +4811,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Establecer el número de días antes de que se pida a los usuarios que vuelvan a confirmar que la información de autenticación no se establece en cero</t>
+          <t>Requisito de directiva de restablecimiento de contraseña de autoservicio verificado conforme.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Se selecciona el número establecido de métodos necesarios para restablecer la contraseña</t>
+          <t>Establecer el número de días antes de que se pida a los usuarios que vuelvan a confirmar que la información de autenticación no se establece en cero</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Restablecimiento de contraseña</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar 'Los usuarios pueden registrar aplicaciones'</t>
+          <t>Se selecciona el número establecido de métodos necesarios para restablecer la contraseña</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restringir el acceso al portal administrativo (portal.azure.com) solo a los administradores</t>
+          <t>Deshabilitar 'Los usuarios pueden registrar aplicaciones'</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite la 'conexión de la cuenta de LinkedIn'</t>
+          <t>Restringir el acceso al portal administrativo (portal.azure.com) solo a los administradores</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Configuración de diagnóstico</t>
+          <t>Configuración de usuario</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilitado y enviar al área de trabajo de Log Analytics con Sentinel</t>
+          <t>Deshabilite la 'conexión de la cuenta de LinkedIn'</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM habilitado</t>
+          <t>Configuración de diagnóstico</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Administración de identidades privilegiada habilitada</t>
+          <t>Habilitado y enviar al área de trabajo de Log Analytics con Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implementar el acceso "justo a tiempo" (JIT) para reducir aún más el tiempo de exposición de las cuentas privilegiadas (reducir el acceso permanente)</t>
+          <t>Administración de identidades privilegiada habilitada</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configurar directivas de acceso condicional / Controles de acceso</t>
+          <t>Implementar el acceso "justo a tiempo" (JIT) para reducir aún más el tiempo de exposición de las cuentas privilegiadas (reducir el acceso permanente)</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352estado</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5225,13 +5225,13 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Condiciones: Ubicaciones restringidas</t>
+          <t>Configurar directivas de acceso condicional / Controles de acceso</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352estado</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: MFA habilitado para todos los usuarios</t>
+          <t>Condiciones: Ubicaciones restringidas</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5317,13 +5317,13 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: Requerir MFA para administradores</t>
+          <t>Controles de acceso: MFA habilitado para todos los usuarios</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5363,13 +5363,13 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controles de acceso: requerir MFA para Azure Management </t>
+          <t>Controles de acceso: Requerir MFA para administradores</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: Bloquear protocolos heredados</t>
+          <t xml:space="preserve">Controles de acceso: requerir MFA para Azure Management </t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: requieren que los dispositivos estén marcados como compatibles</t>
+          <t>Controles de acceso: Bloquear protocolos heredados</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5496,22 +5496,18 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Usuarios invitados</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>¿Existe una política para rastrear las cuentas de usuario invitado (es decir, usar/eliminar/deshabilitar)?</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="inlineStr">
-        <is>
-          <t>Política documentada del cliente</t>
-        </is>
-      </c>
+          <t>Controles de acceso: requieren que los dispositivos estén marcados como compatibles</t>
+        </is>
+      </c>
+      <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5522,7 +5518,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5530,7 +5526,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5546,18 +5542,22 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Puntuación segura de identidad</t>
+          <t>Usuarios invitados</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Implemente Identity Secure Score basado en las mejores prácticas de su sector</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="n"/>
+          <t>¿Existe una política para rastrear las cuentas de usuario invitado (es decir, usar/eliminar/deshabilitar)?</t>
+        </is>
+      </c>
+      <c r="D104" s="22" t="inlineStr">
+        <is>
+          <t>Política documentada del cliente</t>
+        </is>
+      </c>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
+          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
+          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Cuentas de Break Glass</t>
+          <t>Puntuación segura de identidad</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Se han creado al menos dos cuentas de break glass y existe una política en torno a su uso.</t>
+          <t>Implemente Identity Secure Score basado en las mejores prácticas de su sector</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,23 +5633,23 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Cuentas de Break Glass</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Control del acceso a máquinas virtuales mediante la directiva de Azure</t>
+          <t>Se han creado al menos dos cuentas de break glass y existe una política en torno a su uso.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5689,13 +5689,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduzca la variabilidad en la configuración e implementación de máquinas virtuales aprovechando las plantillas</t>
+          <t>Control del acceso a máquinas virtuales mediante la directiva de Azure</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro para implementar VMS al reducir quién tiene acceso a los recursos a través de la gobernanza</t>
+          <t>Reduzca la variabilidad en la configuración e implementación de máquinas virtuales aprovechando las plantillas</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use varias máquinas virtuales para sus cargas de trabajo para una mejor disponibilidad </t>
+          <t>Acceso privilegiado seguro para implementar VMS al reducir quién tiene acceso a los recursos a través de la gobernanza</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implementar y probar una solución de recuperación ante desastres </t>
+          <t xml:space="preserve">Use varias máquinas virtuales para sus cargas de trabajo para una mejor disponibilidad </t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Conjuntos de disponibilidad</t>
+          <t xml:space="preserve">Implementar y probar una solución de recuperación ante desastres </t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidad</t>
+          <t>Conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tolerancia a fallos regional </t>
+          <t>Zonas de disponibilidad</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6005,18 +6005,18 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Protección contra el malware</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Instalar soluciones antimalware</t>
+          <t xml:space="preserve">Tolerancia a fallos regional </t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integre la solución antimalware con Security Center</t>
+          <t>Instalar soluciones antimalware</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Administrar actualizaciones de máquinas virtuales</t>
+          <t>Protección contra el malware</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Mantenga actualizadas las máquinas virtuales mediante La administración de actualizaciones con Automatización de Azure</t>
+          <t>Integre la solución antimalware con Security Center</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que las imágenes de Windows para la implementación tengan el nivel más reciente de actualizaciones </t>
+          <t>Mantenga actualizadas las máquinas virtuales mediante La administración de actualizaciones con Automatización de Azure</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6191,13 +6191,13 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Aplique rápidamente actualizaciones de seguridad a las máquinas virtuales con Microsoft Defender para la nube</t>
+          <t xml:space="preserve">Asegúrese de que las imágenes de Windows para la implementación tengan el nivel más reciente de actualizaciones </t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Cifre sus VHD</t>
+          <t>Administrar actualizaciones de máquinas virtuales</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Habilite el cifrado en sus máquinas virtuales</t>
+          <t>Aplique rápidamente actualizaciones de seguridad a las máquinas virtuales con Microsoft Defender para la nube</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agregar clave de cifrado de clave (KEK) para una capa adicional de seguridad para el cifrado </t>
+          <t>Habilite el cifrado en sus máquinas virtuales</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Tome una instantánea de los discos antes del cifrado para fines de reversión</t>
+          <t xml:space="preserve">Agregar clave de cifrado de clave (KEK) para una capa adicional de seguridad para el cifrado </t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6369,18 +6369,18 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t>Cifre sus VHD</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que solo el grupo de red central tiene permisos para los recursos de red </t>
+          <t>Tome una instantánea de los discos antes del cifrado para fines de reversión</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
       <c r="E122" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223E138</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Identifique y corrija las máquinas virtuales expuestas que permiten el acceso desde 'CUALQUIER' complemento de IP de origen</t>
+          <t xml:space="preserve">Asegúrese de que solo el grupo de red central tiene permisos para los recursos de red </t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>5173676a-e466-491e-a835-ad942223E138</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restringir los puertos de administración (RDP, SSH) mediante el acceso justo a tiempo</t>
+          <t>Identifique y corrija las máquinas virtuales expuestas que permiten el acceso desde 'CUALQUIER' complemento de IP de origen</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Quitar el acceso interno e implementar servidores de salto para RDP</t>
+          <t>Restringir los puertos de administración (RDP, SSH) mediante el acceso justo a tiempo</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Elimine el inicio de sesión directo en los servidores que usan RDP / SSH de Internet e implemente VPN o ruta rápida</t>
+          <t>Quitar el acceso interno e implementar servidores de salto para RDP</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Aproveche Azure Bastion como su agente RDP/SSH para mayor seguridad y reducción de la huella</t>
+          <t>Elimine el inicio de sesión directo en los servidores que usan RDP / SSH de Internet e implemente VPN o ruta rápida</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6638,17 +6638,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitectura </t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Todos los inquilinos que contienen Sentinel tiene habilitado en al menos un área de trabajo de Log Analytics</t>
+          <t>Aproveche Azure Bastion como su agente RDP/SSH para mayor seguridad y reducción de la huella</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>El cliente entiende la arquitectura de Sentinel</t>
+          <t>Todos los inquilinos que contienen Sentinel tiene habilitado en al menos un área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6738,13 +6738,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>El cliente sabe cómo supervisar los incidentes en varias instancias de Sentinel</t>
+          <t>El cliente entiende la arquitectura de Sentinel</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t xml:space="preserve">Arquitectura </t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>No Hay incidencias abierto más de 24 horas</t>
+          <t>El cliente sabe cómo supervisar los incidentes en varias instancias de Sentinel</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
+          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Noticias y Guías</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>A los clientes se les ha mostrado la pestaña Noticias y guías</t>
+          <t>No Hay incidencias abierto más de 24 horas</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Noticias y Guías</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA configurado (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>A los clientes se les ha mostrado la pestaña Noticias y guías</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,18 +6913,18 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory en configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>UEBA configurado (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
       <c r="E134" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Identity Protection está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Azure Active Directory en configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Activity está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Azure Active Directory Identity Protection está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Azure Activity está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7077,7 +7077,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Azure Defender está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7122,7 +7122,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Firewall de Windows está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Azure Firewall está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7167,7 +7167,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Security Events está configurado con AMA y 'Last Log Received' se muestra hoy</t>
+          <t>Firewall de Windows está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7212,7 +7212,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Eventos de seguridad: compruebe que los equipos de Azure están conectados y envían datos al área de trabajo</t>
+          <t>Security Events está configurado con AMA y 'Last Log Received' se muestra hoy</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Eventos de seguridad: compruebe que los equipos que no son de Azure están conectados y envían datos al área de trabajo</t>
+          <t>Eventos de seguridad: compruebe que los equipos de Azure están conectados y envían datos al área de trabajo</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conector para AWS</t>
+          <t>Eventos de seguridad: compruebe que los equipos que no son de Azure están conectados y envían datos al área de trabajo</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7347,7 +7347,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Conector para GCP</t>
+          <t>Conector para AWS</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7392,7 +7392,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Reglas de análisis</t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">El cliente ha habilitado las reglas de Analytics y ha configurado incidentes </t>
+          <t>Conector para GCP</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7453,18 +7453,18 @@
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Configuración</t>
+          <t>Reglas de análisis</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>El cliente no tiene un límite diario habilitado</t>
+          <t xml:space="preserve">El cliente ha habilitado las reglas de Analytics y ha configurado incidentes </t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,7 +7493,7 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
@@ -7503,13 +7503,13 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Implementación de Azure Firewall Premium</t>
+          <t>El cliente no tiene un límite diario habilitado</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
       <c r="E147" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/overview</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Ajuste de cuatro cero/fuerza habilitado a través de Azure Firewall</t>
+          <t>Implementación de Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
+          <t>https://docs.microsoft.com/azure/firewall/overview</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7588,18 +7588,18 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Configuración</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC establecido para habilitar solo usuarios autorizados</t>
+          <t>Ajuste de cuatro cero/fuerza habilitado a través de Azure Firewall</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Configuración de diagnóstico</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnóstico habilitado y envío de métricas a un área de trabajo de Log Analytics </t>
+          <t>RBAC establecido para habilitar solo usuarios autorizados</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7678,18 +7678,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Configuración de diagnóstico</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Los concentradores y las redes virtuales están protegidos o conectados a través de Firewall Premium</t>
+          <t xml:space="preserve">Diagnóstico habilitado y envío de métricas a un área de trabajo de Log Analytics </t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Los controles de acceso están configurados (RBAC)</t>
+          <t>Los concentradores y las redes virtuales están protegidos o conectados a través de Firewall Premium</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directiva: la directiva principal está configurada </t>
+          <t>Directiva: Los controles de acceso están configurados (RBAC)</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Directiva: se definen las colecciones de reglas</t>
+          <t xml:space="preserve">Directiva: la directiva principal está configurada </t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Política: Se definen las políticas de DNAT</t>
+          <t>Directiva: se definen las colecciones de reglas</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -7887,7 +7887,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Se definen las reglas de red</t>
+          <t>Política: Se definen las políticas de DNAT</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7932,7 +7932,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Se definen las reglas de aplicación</t>
+          <t>Directiva: Se definen las reglas de red</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7998,13 +7998,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Característica entendida y aplicada o no aplicada</t>
+          <t>Directiva: Se definen las reglas de aplicación</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Inteligencia de amenazas: Configurado para alertar y denegar</t>
+          <t>DNS: Característica entendida y aplicada o no aplicada</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Inteligencia de amenazas: Lista permitida (justifique si se están utilizando, es decir, rendimiento)</t>
+          <t>Inteligencia de amenazas: Configurado para alertar y denegar</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8112,7 +8112,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS habilitado</t>
+          <t>Inteligencia de amenazas: Lista permitida (justifique si se están utilizando, es decir, rendimiento)</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
+          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS habilitados</t>
+          <t>TLS habilitado</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configurado </t>
+          <t>IDPS habilitados</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8263,18 +8263,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Protección DDOS</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP públicas de Firewall</t>
+          <t xml:space="preserve">SNAT: Configurado </t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8301,109 +8301,315 @@
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Azure Firewall</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Protección DDOS</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Habilitado para IP públicas de Firewall</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -10461,8 +10667,14 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F166" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10477,7 +10689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
@@ -10742,6 +10954,13 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Application Deployment</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/spreadsheet/security_checklist.es.xlsx
+++ b/spreadsheet/security_checklist.es.xlsx
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/faq-data-collection-agents</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Todos los servicios de Defender están habilitados </t>
+          <t>Las funciones de seguridad mejoradas de Defender for Cloud están habilitadas</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -2813,7 +2813,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Los endpoings privados de red virtual están en uso para permitir el acceso desde entornos locales, no existen extremos públicos heredados</t>
+          <t>Los puntos de conexión privados de red virtual están en uso para permitir el acceso desde entornos locales, no existen puntos de enlace públicos heredados</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>VNet Kubernetes: cubierto por Security Center</t>
+          <t>Proteger el tráfico entre pods mediante directivas de red en Azure Kubernetes Service (AKS)</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3273,7 +3273,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Alcance global</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>El cliente está utilizando Global Reach para conectarse de forma privada a servicios que se ejecutan en otras regiones</t>
+          <t>VWAN RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3319,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-set-global-reach-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>3818bafa-2cf2-4149-b013-a923ce574dcc</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>El cliente de VWAN está utilizando Secure Hub o Firewall externo para enrutar y monitorear el tráfico.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3364,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>El cliente de VWAN está utilizando Secure Hub o Firewall externo para enrutar y monitorear el tráfico.</t>
+          <t>AppGW RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3409,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t xml:space="preserve">AppGW Todos los servicios web externos están conectados a Application Gateways con WAF habilitado </t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3454,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos los servicios web externos están conectados a Application Gateways con WAF habilitado </t>
+          <t xml:space="preserve">AppGW Todos los servicios web internos están integrados en Application Gateways con WAF habilitado </t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3506,7 +3506,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos los servicios web internos están integrados en Application Gateways con WAF habilitado </t>
+          <t>AppGW - La cara externa tiene TLS / SSL habilitado y redirige todo el tráfico a 443 (sin tráfico del puerto 80)</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3544,14 +3544,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3567,12 +3567,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Puerta frontal</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>AppGW - La cara externa tiene TLS / SSL habilitado y redirige todo el tráfico a 443 (sin tráfico del puerto 80)</t>
+          <t>Front Door RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3589,14 +3589,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Front Door RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>Front Door está asociado a una política WAF</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3634,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Front Door está asociado a una política WAF</t>
+          <t>La directiva TLS/SSL de puerta principal está configurada</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3679,7 +3679,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3687,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>La directiva TLS/SSL de puerta principal está configurada</t>
+          <t>El puerto de redirección de la puerta principal 80 al puerto 443 está configurado (oyentes)</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3725,7 +3725,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3733,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>El puerto de redirección de la puerta principal 80 al puerto 443 está configurado (oyentes)</t>
+          <t>Los registros de diagnóstico de Front Door envían ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog a Sentinel LAW</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3771,7 +3771,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3779,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Protección DDOS</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Los registros de diagnóstico de Front Door envían ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog a Sentinel LAW</t>
+          <t>Habilitado para IP públicas de Firewall (todas las IP públicas)</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3817,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3835,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Protección DDOS</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP públicas de Firewall (todas las IP públicas)</t>
+          <t>Establezca un directorio empresarial único para administrar las identidades de los empleados a tiempo completo y los recursos empresariales.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3862,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3870,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Establezca un directorio empresarial único para administrar las identidades de los empleados a tiempo completo y los recursos empresariales.</t>
+          <t>Sincronice su identidad en la nube con sus sistemas de identidad existentes.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -3908,7 +3908,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3916,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Sincronice su identidad en la nube con sus sistemas de identidad existentes.</t>
+          <t>Use los servicios de identidad en la nube para hospedar cuentas que no sean de empleados, como proveedores, socios y clientes, en lugar de incluirlos en su directorio local.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3954,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3962,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Use los servicios de identidad en la nube para hospedar cuentas que no sean de empleados, como proveedores, socios y clientes, en lugar de incluirlos en su directorio local.</t>
+          <t>Deshabilite los protocolos heredados inseguros para los servicios orientados a Internet.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4000,7 +4000,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4008,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los protocolos heredados inseguros para los servicios orientados a Internet.</t>
+          <t>Habilitar el inicio de sesión único</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4046,7 +4046,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4054,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el inicio de sesión único</t>
+          <t>No sincronice cuentas con el acceso con privilegios más altos a los recursos locales mientras sincroniza sus sistemas de identidad empresarial con directorios en la nube.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4092,7 +4092,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>No sincronice cuentas con el acceso con privilegios más altos a los recursos locales mientras sincroniza sus sistemas de identidad empresarial con directorios en la nube.</t>
+          <t>Limitar el número de administradores globales a menos de 5</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4138,7 +4138,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4146,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Limitar el número de administradores globales a menos de 5</t>
+          <t>Usar grupos para asignaciones de roles de Azure AD y delegar la asignación de roles</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4184,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4192,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Usar grupos para asignaciones de roles de Azure AD y delegar la asignación de roles</t>
+          <t>Asegúrese de que todos los administradores de impacto crítico sean administrados por el directorio empresarial para seguir la aplicación de las políticas de la organización.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4230,7 +4230,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4238,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los administradores de impacto crítico sean administrados por el directorio empresarial para seguir la aplicación de las políticas de la organización.</t>
+          <t>Configurar revisiones de acceso recurrentes para revocar permisos innecesarios a lo largo del tiempo</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4276,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4284,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Configurar revisiones de acceso recurrentes para revocar permisos innecesarios a lo largo del tiempo</t>
+          <t>Garantice que los administradores de impacto crítico utilicen una estación de trabajo con protecciones de seguridad y supervisión elevadas</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4346,18 +4346,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Garantice que los administradores de impacto crítico utilicen una estación de trabajo con protecciones de seguridad y supervisión elevadas</t>
+          <t>Proveedores de identidad: verifique que los proveedores de identidad externos sean conocidos</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Proveedores de identidad: verifique que los proveedores de identidad externos sean conocidos</t>
+          <t>Configuración de colaboración externa: ¿El acceso de usuario invitado se establece en '¿El acceso de usuario invitado está restringido?'</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: ¿El acceso de usuario invitado se establece en '¿El acceso de usuario invitado está restringido?'</t>
+          <t>Configuración de colaboración externa: la configuración de invitación de invitado se establece en 'Solo usuarios asignados a roles de administrador específicos'</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: la configuración de invitación de invitado se establece en 'Solo usuarios asignados a roles de administrador específicos'</t>
+          <t xml:space="preserve">Configuración de colaboración externa: habilite el registro de autoservicio de invitados a través de flujos establecidos en 'Deshabilitado' </t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración de colaboración externa: habilite el registro de autoservicio de invitados a través de flujos establecidos en 'Deshabilitado' </t>
+          <t>Configuración de colaboración externa: restricciones de colaboración establecidas en 'Permitir invitaciones a los dominios especificados'</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4581,13 +4581,13 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: restricciones de colaboración establecidas en 'Permitir invitaciones a los dominios especificados'</t>
+          <t>Revisiones de acceso: habilitado para todos los grupos</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4622,12 +4622,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Aplicaciones empresariales</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Revisiones de acceso: habilitado para todos los grupos</t>
+          <t>Consentimiento y permisos: permitir el consentimiento del usuario para aplicaciones de editores verificados</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Consentimiento y permisos: permitir el consentimiento del usuario para aplicaciones de editores verificados</t>
+          <t xml:space="preserve">Consentimiento y permisos: Permitir el consentimiento del propietario del grupo para los propietarios de grupos seleccionados </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,18 +4714,18 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Aplicaciones empresariales</t>
+          <t>Dominios personalizados</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consentimiento y permisos: Permitir el consentimiento del propietario del grupo para los propietarios de grupos seleccionados </t>
+          <t>Solo se registran los dominios de clientes validados</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/develop/application-consent-experience</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,12 +4760,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Dominios personalizados</t>
+          <t>Restablecimiento de contraseña</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Solo se registran los dominios de clientes validados</t>
+          <t>Requisito de directiva de restablecimiento de contraseña de autoservicio verificado conforme.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4811,13 +4811,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Requisito de directiva de restablecimiento de contraseña de autoservicio verificado conforme.</t>
+          <t>Establecer el número de días antes de que se pida a los usuarios que vuelvan a confirmar que la información de autenticación no se establece en cero</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4857,13 +4857,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Establecer el número de días antes de que se pida a los usuarios que vuelvan a confirmar que la información de autenticación no se establece en cero</t>
+          <t>Se selecciona el número establecido de métodos necesarios para restablecer la contraseña</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Restablecimiento de contraseña</t>
+          <t>Configuración de usuario</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Se selecciona el número establecido de métodos necesarios para restablecer la contraseña</t>
+          <t>Deshabilitar 'Los usuarios pueden registrar aplicaciones'</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar 'Los usuarios pueden registrar aplicaciones'</t>
+          <t>Restringir el acceso al portal administrativo (portal.azure.com) solo a los administradores</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Restringir el acceso al portal administrativo (portal.azure.com) solo a los administradores</t>
+          <t>Deshabilite la 'conexión de la cuenta de LinkedIn'</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Configuración de diagnóstico</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite la 'conexión de la cuenta de LinkedIn'</t>
+          <t>Habilitado y enviar al área de trabajo de Log Analytics con Sentinel</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Configuración de diagnóstico</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Habilitado y enviar al área de trabajo de Log Analytics con Sentinel</t>
+          <t>Administración de identidades privilegiada habilitada</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Administración de identidades privilegiada habilitada</t>
+          <t>Implementar el acceso "justo a tiempo" (JIT) para reducir aún más el tiempo de exposición de las cuentas privilegiadas (reducir el acceso permanente)</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,12 +5174,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>PIM habilitado</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Implementar el acceso "justo a tiempo" (JIT) para reducir aún más el tiempo de exposición de las cuentas privilegiadas (reducir el acceso permanente)</t>
+          <t>Configurar directivas de acceso condicional / Controles de acceso</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352estado</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5225,13 +5225,13 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Configurar directivas de acceso condicional / Controles de acceso</t>
+          <t>Condiciones: Ubicaciones restringidas</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352estado</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5271,13 +5271,13 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Condiciones: Ubicaciones restringidas</t>
+          <t>Controles de acceso: MFA habilitado para todos los usuarios</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5317,13 +5317,13 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: MFA habilitado para todos los usuarios</t>
+          <t>Controles de acceso: Requerir MFA para administradores</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5363,13 +5363,13 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: Requerir MFA para administradores</t>
+          <t xml:space="preserve">Controles de acceso: requerir MFA para Azure Management </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controles de acceso: requerir MFA para Azure Management </t>
+          <t>Controles de acceso: Bloquear protocolos heredados</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: Bloquear protocolos heredados</t>
+          <t>Controles de acceso: requieren que los dispositivos estén marcados como compatibles</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5496,18 +5496,22 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Usuarios invitados</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: requieren que los dispositivos estén marcados como compatibles</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="n"/>
+          <t>¿Existe una política para rastrear las cuentas de usuario invitado (es decir, usar/eliminar/deshabilitar)?</t>
+        </is>
+      </c>
+      <c r="D103" s="22" t="inlineStr">
+        <is>
+          <t>Política documentada del cliente</t>
+        </is>
+      </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5518,7 +5522,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5526,7 +5530,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5542,22 +5546,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Usuarios invitados</t>
+          <t>Puntuación segura de identidad</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>¿Existe una política para rastrear las cuentas de usuario invitado (es decir, usar/eliminar/deshabilitar)?</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="inlineStr">
-        <is>
-          <t>Política documentada del cliente</t>
-        </is>
-      </c>
+          <t>Implemente Identity Secure Score basado en las mejores prácticas de su sector</t>
+        </is>
+      </c>
+      <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://devblogs.microsoft.com/premier-developer/azure-active-directory-automating-guest-user-management/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5576,7 +5576,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>a7144351-e19d-4d34-929e-b7228137a151</t>
+          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Puntuación segura de identidad</t>
+          <t>Cuentas de Break Glass</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Implemente Identity Secure Score basado en las mejores prácticas de su sector</t>
+          <t>Se han creado al menos dos cuentas de break glass y existe una política en torno a su uso.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/identity-secure-score</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>c5bb4e4f-1814-4287-b5ca-8c26c9b32ab5</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,23 +5633,23 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Cuentas de Break Glass</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Se han creado al menos dos cuentas de break glass y existe una política en torno a su uso.</t>
+          <t>Control del acceso a máquinas virtuales mediante la directiva de Azure</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5689,13 +5689,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Control del acceso a máquinas virtuales mediante la directiva de Azure</t>
+          <t>Reduzca la variabilidad en la configuración e implementación de máquinas virtuales aprovechando las plantillas</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Reduzca la variabilidad en la configuración e implementación de máquinas virtuales aprovechando las plantillas</t>
+          <t>Acceso privilegiado seguro para implementar VMS al reducir quién tiene acceso a los recursos a través de la gobernanza</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro para implementar VMS al reducir quién tiene acceso a los recursos a través de la gobernanza</t>
+          <t xml:space="preserve">Use varias máquinas virtuales para sus cargas de trabajo para una mejor disponibilidad </t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use varias máquinas virtuales para sus cargas de trabajo para una mejor disponibilidad </t>
+          <t xml:space="preserve">Implementar y probar una solución de recuperación ante desastres </t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implementar y probar una solución de recuperación ante desastres </t>
+          <t>Conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Conjuntos de disponibilidad</t>
+          <t>Zonas de disponibilidad</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidad</t>
+          <t xml:space="preserve">Tolerancia a fallos regional </t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6005,18 +6005,18 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Protección contra el malware</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tolerancia a fallos regional </t>
+          <t>Instalar soluciones antimalware</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Instalar soluciones antimalware</t>
+          <t>Integre la solución antimalware con Security Center</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-services</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Protección contra el malware</t>
+          <t>Administrar actualizaciones de máquinas virtuales</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Integre la solución antimalware con Security Center</t>
+          <t>Mantenga actualizadas las máquinas virtuales mediante La administración de actualizaciones con Automatización de Azure</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Mantenga actualizadas las máquinas virtuales mediante La administración de actualizaciones con Automatización de Azure</t>
+          <t xml:space="preserve">Asegúrese de que las imágenes de Windows para la implementación tengan el nivel más reciente de actualizaciones </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6191,13 +6191,13 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que las imágenes de Windows para la implementación tengan el nivel más reciente de actualizaciones </t>
+          <t>Aplique rápidamente actualizaciones de seguridad a las máquinas virtuales con Microsoft Defender para la nube</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Administrar actualizaciones de máquinas virtuales</t>
+          <t>Cifre sus VHD</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Aplique rápidamente actualizaciones de seguridad a las máquinas virtuales con Microsoft Defender para la nube</t>
+          <t>Habilite el cifrado en sus máquinas virtuales</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Habilite el cifrado en sus máquinas virtuales</t>
+          <t xml:space="preserve">Agregar clave de cifrado de clave (KEK) para una capa adicional de seguridad para el cifrado </t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/active-directory-certificate-based-authentication-get-started</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6328,13 +6328,13 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agregar clave de cifrado de clave (KEK) para una capa adicional de seguridad para el cifrado </t>
+          <t>Tome una instantánea de los discos antes del cifrado para fines de reversión</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/keys/hsm-protected-keys</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6369,18 +6369,18 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Cifre sus VHD</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Tome una instantánea de los discos antes del cifrado para fines de reversión</t>
+          <t xml:space="preserve">Asegúrese de que solo el grupo de red central tiene permisos para los recursos de red </t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
       <c r="E122" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>5173676a-e466-491e-a835-ad942223E138</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que solo el grupo de red central tiene permisos para los recursos de red </t>
+          <t>Identifique y corrija las máquinas virtuales expuestas que permiten el acceso desde 'CUALQUIER' complemento de IP de origen</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223E138</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Identifique y corrija las máquinas virtuales expuestas que permiten el acceso desde 'CUALQUIER' complemento de IP de origen</t>
+          <t>Restringir los puertos de administración (RDP, SSH) mediante el acceso justo a tiempo</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Restringir los puertos de administración (RDP, SSH) mediante el acceso justo a tiempo</t>
+          <t>Quitar el acceso a Internet e implementar servidores de salto para RDP</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Quitar el acceso interno e implementar servidores de salto para RDP</t>
+          <t>Elimine el inicio de sesión directo en los servidores que usan RDP / SSH de Internet e implemente VPN o ruta rápida</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Elimine el inicio de sesión directo en los servidores que usan RDP / SSH de Internet e implemente VPN o ruta rápida</t>
+          <t>Aproveche Azure Bastion como su agente RDP/SSH para mayor seguridad y reducción de la huella</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6638,17 +6638,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t xml:space="preserve">Arquitectura </t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Aproveche Azure Bastion como su agente RDP/SSH para mayor seguridad y reducción de la huella</t>
+          <t>Todos los inquilinos que contienen Sentinel tiene habilitado en al menos un área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Todos los inquilinos que contienen Sentinel tiene habilitado en al menos un área de trabajo de Log Analytics</t>
+          <t>El cliente entiende la arquitectura de Sentinel</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6738,13 +6738,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>El cliente entiende la arquitectura de Sentinel</t>
+          <t>El cliente sabe cómo supervisar los incidentes en varias instancias de Sentinel</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitectura </t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>El cliente sabe cómo supervisar los incidentes en varias instancias de Sentinel</t>
+          <t>No Hay incidencias abierto más de 24 horas</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/investigate-cases?WT.mc_id=azuresentinel_portalcard_inproduct_incidents</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Noticias y Guías</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>No Hay incidencias abierto más de 24 horas</t>
+          <t>A los clientes se les ha mostrado la pestaña Noticias y guías</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-tenants-service-providers</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>Noticias y Guías</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>A los clientes se les ha mostrado la pestaña Noticias y guías</t>
+          <t>UEBA configurado (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6913,18 +6913,18 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>UEBA configurado (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>Azure Active Directory en configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
       <c r="E134" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory en configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Azure Active Directory Identity Protection está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Identity Protection está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Azure Activity está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/identity-protection/overview-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure Activity está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Microsoft Defender para Cloud está configurado y 'Last Log Received' se muestra hoy</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Azure Firewall está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Firewall de Windows está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Firewall de Windows está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Security Events está configurado con AMA y 'Last Log Received' se muestra hoy</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Security Events está configurado con AMA y 'Last Log Received' se muestra hoy</t>
+          <t>Eventos de seguridad: compruebe que los equipos de Azure están conectados y envían datos al área de trabajo</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7257,7 +7257,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Eventos de seguridad: compruebe que los equipos de Azure están conectados y envían datos al área de trabajo</t>
+          <t>Eventos de seguridad: compruebe que los equipos que no son de Azure están conectados y envían datos al área de trabajo</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7302,7 +7302,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Eventos de seguridad: compruebe que los equipos que no son de Azure están conectados y envían datos al área de trabajo</t>
+          <t>Conector para AWS</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Conector para AWS</t>
+          <t>Conector para GCP</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7392,7 +7392,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Reglas de análisis</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Conector para GCP</t>
+          <t xml:space="preserve">El cliente ha habilitado las reglas de Analytics y ha configurado incidentes </t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7453,18 +7453,18 @@
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Reglas de análisis</t>
+          <t>Configuración</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">El cliente ha habilitado las reglas de Analytics y ha configurado incidentes </t>
+          <t>El cliente no tiene un límite diario habilitado</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,7 +7493,7 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
@@ -7503,13 +7503,13 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>El cliente no tiene un límite diario habilitado</t>
+          <t>Implementación de Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
       <c r="E147" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Implementación de Azure Firewall Premium</t>
+          <t>Ajuste de cuatro cero/fuerza habilitado a través de Azure Firewall</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7588,18 +7588,18 @@
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Configuración</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Ajuste de cuatro cero/fuerza habilitado a través de Azure Firewall</t>
+          <t>RBAC establecido para habilitar solo usuarios autorizados</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/azure-firewall-forced-tunneling-and-sql-fqdn-filtering-now-generally-available/</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7633,12 +7633,12 @@
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Configuración de diagnóstico</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>RBAC establecido para habilitar solo usuarios autorizados</t>
+          <t xml:space="preserve">Diagnóstico habilitado y envío de métricas a un área de trabajo de Log Analytics </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7678,18 +7678,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Configuración de diagnóstico</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnóstico habilitado y envío de métricas a un área de trabajo de Log Analytics </t>
+          <t>Los concentradores y las redes virtuales están protegidos o conectados a través de Firewall Premium</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Los concentradores y las redes virtuales están protegidos o conectados a través de Firewall Premium</t>
+          <t>Directiva: Los controles de acceso están configurados (RBAC)</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Los controles de acceso están configurados (RBAC)</t>
+          <t xml:space="preserve">Directiva: la directiva principal está configurada </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directiva: la directiva principal está configurada </t>
+          <t>Directiva: se definen las colecciones de reglas</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Directiva: se definen las colecciones de reglas</t>
+          <t>Política: Se definen las políticas de DNAT</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -7887,7 +7887,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Política: Se definen las políticas de DNAT</t>
+          <t>Directiva: Se definen las reglas de red</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7932,7 +7932,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Se definen las reglas de red</t>
+          <t>Directiva: Se definen las reglas de aplicación</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7998,13 +7998,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Se definen las reglas de aplicación</t>
+          <t>DNS: Característica entendida y aplicada o no aplicada</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8043,13 +8043,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>DNS: Característica entendida y aplicada o no aplicada</t>
+          <t>Inteligencia de amenazas: Configurado para alertar y denegar</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Inteligencia de amenazas: Configurado para alertar y denegar</t>
+          <t>Inteligencia de amenazas: Lista permitida (justifique si se están utilizando, es decir, rendimiento)</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Inteligencia de amenazas: Lista permitida (justifique si se están utilizando, es decir, rendimiento)</t>
+          <t>TLS habilitado</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/threat-intelligence-based-filtering-for-azure-firewall-is-now-available-in-preview/</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>TLS habilitado</t>
+          <t>IDPS habilitados</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/certificate-management-overview-for-azure-firewall-premium-tls/ba-p/2214763</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>IDPS habilitados</t>
+          <t xml:space="preserve">SNAT: Configurado </t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8263,18 +8263,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Protección DDOS</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configurado </t>
+          <t>Habilitado para IP públicas de Firewall</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8303,41 +8303,41 @@
     <row r="165" ht="16.5" customHeight="1" s="13">
       <c r="A165" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>Protección DDOS</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP públicas de Firewall</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>No verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -10667,14 +10667,26 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F166" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/security_checklist.es.xlsx
+++ b/spreadsheet/security_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Lista de comprobación de revisión de seguridad de Azure</t>
+          <t>Azure Security Review Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Habilitación de Security Center/Defender en todas las suscripciones</t>
+          <t>RBAC configurado para habilitar solo usuarios autorizados</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Configuración</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Security Center/Defender habilitado en todos los espacios de trabajo de Log Analytics</t>
+          <t>Azure Firewall Premium implementado</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Configuración</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Conjunto de recopilación de datos en 'Común'</t>
+          <t>Quad zero/force tunning habilitado a través de Azure Firewall</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Protección DDOS</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Las funciones de seguridad mejoradas de Defender for Cloud están habilitadas</t>
+          <t>Habilitado para IP públicas de Firewall</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Configuración de diagnóstico</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Aprovisionamiento automático habilitado según la directiva de la empresa (la directiva debe existir)</t>
+          <t xml:space="preserve">Diagnósticos habilitados y envío de métricas a un área de trabajo de Log Analytics </t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Notificaciones por correo electrónico habilitadas según la directiva de la empresa (la directiva debe existir)</t>
+          <t>Los concentradores y las redes virtuales están protegidos o conectados a través de Firewall Premium</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1371,23 +1371,23 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se seleccionan las opciones Habilitar integraciones </t>
+          <t>Directiva: Los controles de acceso están configurados (RBAC)</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>La integración de CI/CD está configurada</t>
+          <t xml:space="preserve">Directiva: la directiva principal está configurada </t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>5b7bae4-4º-45e8-a79e-2e86667313c5</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>La exportación continua 'Event Hub' está habilitada si se utiliza SIEM de 3ª parte</t>
+          <t>Directiva: se definen las colecciones de reglas</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>La exportación continua 'Log Analytics Workspace' está habilitada si no se usa Azure Sentinel</t>
+          <t>Política: se definen las políticas DNAT</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Conector en la nube habilitado para AWS</t>
+          <t>Directiva: se definen las reglas de red</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Conector en la nube habilitado para GCP</t>
+          <t>Directiva: se definen las reglas de aplicación</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Si usa el proxy de aplicación de Azure AD, considere la posibilidad de integrarse con Microsoft Defender for Cloud Apps para supervisar el acceso a las aplicaciones en tiempo real y aplicar controles de seguridad avanzados.</t>
+          <t>DNS: Característica entendida y aplicada o no aplicada</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Recomendaciones</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Todas las recomendaciones remediadas o deshabilitadas si no es necesario.</t>
+          <t>Inteligencia de amenazas: configurado para alertar y denegar</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,24 +1739,20 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Recomendaciones</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Puntuación de seguridad&gt;70%</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>El objetivo mínimo de Microsoft para todos los clientes es del 70 %</t>
-        </is>
-      </c>
+          <t>Inteligencia de amenazas: lista de permitidos (justificar si se están utilizando, es decir, rendimiento)</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1770,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1789,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Alertas de seguridad</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Las alertas de seguridad contienen solo las generadas en las últimas 24 horas (corregir o deshabilitar las alertas de seguridad más antiguas)</t>
+          <t>TLS habilitado</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1816,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1835,23 +1831,23 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Libros</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Si la exportación continua está habilitada, los libros predeterminados se publican en el panel de seguridad personalizado</t>
+          <t>IDPS habilitado</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Comunidad</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>El cliente es consciente del valor de la página 'Comunidad' y tiene una cadencia regular configurada para revisar</t>
+          <t xml:space="preserve">SNAT: Configurado </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,24 +1923,20 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Puntuación segura</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Se muestran todas las suscripciones protegidas por Security Center (sin filtro de suscripción establecido)</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente - Transparencia</t>
-        </is>
-      </c>
+          <t>AppGW RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1958,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1969,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Cumplimiento normativo</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Los controles de cumplimiento son ecológicos para cualquier requisito de cumplimiento requerido</t>
+          <t xml:space="preserve">AppGW Todos los servicios web externos están utilizando Application Gateways con WAF habilitado </t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2004,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,24 +2014,20 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Las vulnerabilidades de VM de alta gravedad son cero (vacías)</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t xml:space="preserve">AppGW Todos los servicios web internos están utilizando Application Gateways con WAF habilitado </t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2053,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2071,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Los concentradores están protegidos por un Firewall de Azure</t>
+          <t>AppGW - External facing tiene TLS/SSL habilitado y redirige todo el tráfico a 443 (sin tráfico del puerto 80)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2098,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2116,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Conectividad</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Las redes virtuales están protegidas por un firewall</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>Uso de ExpressRoute o VPN para acceder a recursos de Azure desde entornos locales</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2165,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Protección DDOS</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>DDoS Standard habilitado</t>
+          <t>Habilitado para IP públicas de firewall (todas las IP públicas)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Cobertura</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Verifique que todas las suscripciones estén cubiertas (consulte los precios y la configuración para modificar)</t>
+          <t>Front Door RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2256,17 +2240,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>IP públicas</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las máquinas virtuales con IP públicas deben estar protegidas por NSG </t>
+          <t>Front Door está asociado con una política WAF</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2283,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2291,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2302,24 +2286,20 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>IP públicas</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales con direcciones IP públicas se mueven detrás de Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>La directiva TLS/SSL de puerta delantera está configurada</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2333,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2341,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2352,24 +2332,20 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>IP públicas</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales que no necesitan DIRECCIONES IP públicas no tienen IP públicas (es decir, solo RDP interno)</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>El puerto de redireccionamiento de la puerta delantera 80 al puerto 443 está configurado (oyentes)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2383,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2402,23 +2378,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>Los registros de diagnóstico de Front Door envían ApplicationGatewayAccessLog y ApplicationGateway FirewallLog a Sentinel LAW</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2429,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2437,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2448,27 +2424,23 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Las reglas de seguridad de entrada de NSG no contienen un * (comodín) en el campo Origen</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>NSG RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2498,27 +2470,27 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Las reglas de seguridad salientes de NSG se utilizan para controlar el tráfico a direcciones IP específicas para el tráfico no enrutado a través de un firewall</t>
+          <t>Las reglas de seguridad de entrada de NSG no contienen un * (comodín) en el campo Origen</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2537,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2548,27 +2520,27 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>NSG no tiene Source como * (comodín) en su lugar.</t>
+          <t>Las reglas de seguridad salientes de NSG se usan para controlar el tráfico a direcciones IP específicas para el tráfico que no se enruta a través de un firewall</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2559,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2598,23 +2570,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Los diagnósticos de NSG envían el tráfico NetworkSecurityGroupEvent y NetworkSecurityGroupRuleCounter a Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>NSG no tiene Source como * (comodín) en su lugar.</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2625,7 +2601,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2609,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2644,17 +2620,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>NSG Diagnostics envía tráfico NetworkSecurityGroupEvent y NetworkSecurityGroupRuleCounter a Sentinel LAW</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2671,7 +2647,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2679,7 +2655,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2690,17 +2666,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>IP públicas</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Si Zero Trust, los UDR se usan para enviar todo el tráfico a Azure Firewall Premium</t>
+          <t xml:space="preserve">Las máquinas virtuales con IP públicas deben estar protegidas por NSG </t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2717,7 +2693,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2725,7 +2701,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2736,27 +2712,27 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>IP públicas</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Los UDR que no envían todo el tráfico a AzureFirewallPremium son conocidos y documentados.</t>
+          <t>Las máquinas virtuales con direcciones IP públicas se mueven detrás de Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2743,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2751,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2786,20 +2762,24 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>IP públicas</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>El cliente está familiarizado con los valores predeterminados de red de Azure / enrutamiento predeterminado de SDN en Azure</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>Las máquinas virtuales que no necesitan IP públicas no tienen IP públicas (es decir, solo RDP interno)</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2813,7 +2793,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2821,7 +2801,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2832,24 +2812,20 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>RBAC de red virtual se usa para restringir el acceso al equipo de seguridad de red</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>UDR RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2863,14 +2839,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2881,17 +2857,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las recomendaciones de seguridad de la red virtual se han corregido y no hay redes virtuales "en riesgo" </t>
+          <t>Si es de confianza cero, se usan UDR para enviar todo el tráfico a Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2884,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2892,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2927,23 +2903,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Se comprenden las conexiones de emparejamiento de red virtual y se documentan los flujos de tráfico esperados</t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="n"/>
+          <t>Los UDR que no envían todo el tráfico a AzureFirewallPremium son conocidos y documentados.</t>
+        </is>
+      </c>
+      <c r="D47" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2954,7 +2934,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2942,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2973,7 +2953,7 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
@@ -2983,7 +2963,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Los extremos de servicio de red virtual están en uso, no existen extremos de servicio público heredados</t>
+          <t>El cliente está familiarizado con los valores predeterminados de red de Azure / enrutamiento predeterminado de SDN en Azure</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +2980,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3018,7 +2998,7 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
@@ -3028,13 +3008,17 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Los puntos de conexión privados de red virtual están en uso para permitir el acceso desde entornos locales, no existen puntos de enlace públicos heredados</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
+          <t>RBAC de red virtual se usa para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3045,14 +3029,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3063,7 +3047,7 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
@@ -3073,7 +3057,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Supervisión de red virtual habilitada</t>
+          <t xml:space="preserve">Se corrigen las recomendaciones de seguridad de red virtual y no hay redes virtuales "en riesgo" </t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3074,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3082,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3109,7 +3093,7 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
@@ -3119,7 +3103,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Proteger el tráfico entre pods mediante directivas de red en Azure Kubernetes Service (AKS)</t>
+          <t>Se comprenden las conexiones del mismo nivel de red virtual y se documentan los flujos de tráfico esperados</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3120,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3128,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3155,7 +3139,7 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
@@ -3165,7 +3149,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>El cliente de VNet NVA (dispositivos) sigue el patrón de arquitectura publicado</t>
+          <t>Los extremos de servicio de red virtual están en uso, no existen extremos de servicio público heredados</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3166,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3174,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3201,7 +3185,7 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
@@ -3211,7 +3195,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>La configuración de diagnóstico de red virtual está habilitada y envía VMProtectionAlerts a Azure Sentinel LAW</t>
+          <t>Los extremos privados de red virtual se usan para permitir el acceso desde entornos locales, no existen extremos públicos heredados</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3212,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3246,17 +3230,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Usar ExpressRoute o VPN para acceder a los recursos de Azure desde entornos locales</t>
+          <t>Supervisión de redes virtuales habilitada</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3257,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3265,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3292,17 +3276,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>Proteja el tráfico entre pods mediante directivas de red en Azure Kubernetes Service (AKS)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3303,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3337,17 +3321,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>El cliente de VWAN está utilizando Secure Hub o Firewall externo para enrutar y monitorear el tráfico.</t>
+          <t>El cliente de NVA (dispositivos) de red virtual sigue el patrón de arquitectura publicado</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3348,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3382,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>La configuración de diagnóstico de red virtual está habilitada y el envío de VMProtectionAlerts a Azure Sentinel LAW</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3393,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3427,17 +3411,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos los servicios web externos están conectados a Application Gateways con WAF habilitado </t>
+          <t>VWAN RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3438,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3472,17 +3456,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos los servicios web internos están integrados en Application Gateways con WAF habilitado </t>
+          <t>El Cliente de VWAN está utilizando Secure Hub o Firewall externo para enrutar y monitorear el tráfico.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3499,14 +3483,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3517,20 +3501,24 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - La cara externa tiene TLS / SSL habilitado y redirige todo el tráfico a 443 (sin tráfico del puerto 80)</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>Las vulnerabilidades de VM de alta gravedad son cero (vacías)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas para el cliente: verificar</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3544,14 +3532,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3562,23 +3550,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Comunidad</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Front Door RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>El cliente es consciente del valor de la página "Comunidad" y tiene una cadencia regular configurada para revisar</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3589,14 +3577,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3607,17 +3595,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Cobertura</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Front Door está asociado a una política WAF</t>
+          <t>Verifique que todas las suscripciones estén cubiertas (consulte precios y configuraciones para modificar)</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3622,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3652,23 +3640,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>La directiva TLS/SSL de puerta principal está configurada</t>
+          <t>Los concentradores están protegidos por Azure Firewall</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3679,7 +3667,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3675,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3698,23 +3686,27 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>El puerto de redirección de la puerta principal 80 al puerto 443 está configurado (oyentes)</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
+          <t>Las redes virtuales están protegidas por un firewall</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas para el cliente: verificar</t>
+        </is>
+      </c>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3725,7 +3717,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3725,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3744,23 +3736,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Los registros de diagnóstico de Front Door envían ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog a Sentinel LAW</t>
+          <t>DDoS estándar habilitado</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3771,7 +3763,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3771,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3790,17 +3782,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Protección DDOS</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP públicas de Firewall (todas las IP públicas)</t>
+          <t>Security Center/Defender habilitar en todas las suscripciones</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3809,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3827,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Establezca un directorio empresarial único para administrar las identidades de los empleados a tiempo completo y los recursos empresariales.</t>
+          <t>Security Center/Defender habilitado en todas las áreas de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3854,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3862,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3881,23 +3873,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Sincronice su identidad en la nube con sus sistemas de identidad existentes.</t>
+          <t>Recopilación de datos establecida en 'Común'</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3908,7 +3900,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3908,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3927,17 +3919,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use los servicios de identidad en la nube para hospedar cuentas que no sean de empleados, como proveedores, socios y clientes, en lugar de incluirlos en su directorio local.</t>
+          <t>Todas las funciones de seguridad mejoradas de Defender for Cloud están habilitadas</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3946,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3954,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3973,23 +3965,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los protocolos heredados inseguros para los servicios orientados a Internet.</t>
+          <t>Aprovisionamiento automático habilitado según la directiva de la empresa (la directiva debe existir)</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4000,7 +3992,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4000,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4019,23 +4011,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el inicio de sesión único</t>
+          <t>Notificaciones por correo electrónico habilitadas según la directiva de la empresa (la directiva debe existir)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4046,7 +4038,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4046,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4065,23 +4057,23 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>No sincronice cuentas con el acceso con privilegios más altos a los recursos locales mientras sincroniza sus sistemas de identidad empresarial con directorios en la nube.</t>
+          <t xml:space="preserve">Las opciones de habilitación de integraciones están seleccionadas </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4092,7 +4084,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4092,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4111,23 +4103,23 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limitar el número de administradores globales a menos de 5</t>
+          <t>La integración CI/CD está configurada</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4138,7 +4130,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4138,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4157,17 +4149,17 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Usar grupos para asignaciones de roles de Azure AD y delegar la asignación de roles</t>
+          <t>La exportación continua 'Event Hub' está habilitada si se usa SIEM de 3rd party</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4176,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4184,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4203,23 +4195,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los administradores de impacto crítico sean administrados por el directorio empresarial para seguir la aplicación de las políticas de la organización.</t>
+          <t>La exportación continua 'Área de trabajo de Log Analytics' está habilitada si no se usa Azure Sentinel</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4230,7 +4222,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4230,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4249,17 +4241,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configurar revisiones de acceso recurrentes para revocar permisos innecesarios a lo largo del tiempo</t>
+          <t>Conector de nube habilitado para AWS</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4268,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4276,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4295,23 +4287,23 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Garantice que los administradores de impacto crítico utilicen una estación de trabajo con protecciones de seguridad y supervisión elevadas</t>
+          <t>Conector en la nube habilitado para GCP</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4314,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4322,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4341,23 +4333,23 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Proveedores de identidad: verifique que los proveedores de identidad externos sean conocidos</t>
+          <t>Si usa el proxy de aplicación de Azure AD, considere la posibilidad de integrarlo con Microsoft Defender para aplicaciones en la nube para supervisar el acceso a las aplicaciones en tiempo real y aplicar controles de seguridad avanzados.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4360,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4368,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4387,23 +4379,23 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Recomendaciones</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: ¿El acceso de usuario invitado se establece en '¿El acceso de usuario invitado está restringido?'</t>
+          <t>Todas las recomendaciones se corrigen o deshabilitan si no es necesario.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4414,7 +4406,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4414,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4433,20 +4425,24 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Recomendaciones</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: la configuración de invitación de invitado se establece en 'Solo usuarios asignados a roles de administrador específicos'</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
+          <t>Puntuación de seguridad&gt;70%</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
+        <is>
+          <t>El objetivo mínimo de Microsoft para todos los clientes es del 70%</t>
+        </is>
+      </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -4460,7 +4456,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4479,17 +4475,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Cumplimiento normativo</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración de colaboración externa: habilite el registro de autoservicio de invitados a través de flujos establecidos en 'Deshabilitado' </t>
+          <t>Los controles de cumplimiento son ecológicos para cualquier requisito de cumplimiento requerido</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4506,7 +4502,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4514,7 +4510,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4525,23 +4521,23 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Alertas de seguridad</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: restricciones de colaboración establecidas en 'Permitir invitaciones a los dominios especificados'</t>
+          <t>Las alertas de seguridad contienen solo las generadas en las últimas 24 horas (corregir o deshabilitar alertas de seguridad anteriores)</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4552,7 +4548,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4560,7 +4556,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4571,23 +4567,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Puntuación segura</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Revisiones de acceso: habilitado para todos los grupos</t>
-        </is>
-      </c>
-      <c r="D83" s="22" t="n"/>
+          <t>Se muestran todas las suscripciones protegidas por Security Center (no se ha establecido ningún filtro de suscripción)</t>
+        </is>
+      </c>
+      <c r="D83" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas para clientes - Transparencia</t>
+        </is>
+      </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4617,17 +4617,17 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Aplicaciones empresariales</t>
+          <t>Libros</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consentimiento y permisos: permitir el consentimiento del usuario para aplicaciones de editores verificados</t>
+          <t>Si la exportación continua está habilitada, los libros predeterminados se publican en el panel de seguridad personalizado</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Aplicaciones empresariales</t>
+          <t>Cuentas de Break Glass</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consentimiento y permisos: Permitir el consentimiento del propietario del grupo para los propietarios de grupos seleccionados </t>
+          <t>Se han creado al menos dos cuentas de vidrio roto y existe una política sobre su uso.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Dominios personalizados</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Solo se registran los dominios de clientes validados</t>
+          <t>Configurar directivas de acceso condicional / Controles de acceso</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,18 +4760,18 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Restablecimiento de contraseña</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Requisito de directiva de restablecimiento de contraseña de autoservicio verificado conforme.</t>
+          <t>Condiciones: Ubicaciones restringidas</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4806,18 +4806,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Restablecimiento de contraseña</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Establecer el número de días antes de que se pida a los usuarios que vuelvan a confirmar que la información de autenticación no se establece en cero</t>
+          <t>Controles de acceso: MFA habilitado para todos los usuarios</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4852,18 +4852,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Restablecimiento de contraseña</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Se selecciona el número establecido de métodos necesarios para restablecer la contraseña</t>
+          <t>Controles de acceso: requerir MFA para administradores</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4874,7 +4874,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar 'Los usuarios pueden registrar aplicaciones'</t>
+          <t xml:space="preserve">Controles de acceso: requiere MFA para Azure Management </t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restringir el acceso al portal administrativo (portal.azure.com) solo a los administradores</t>
+          <t>Controles de acceso: bloquear protocolos heredados</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite la 'conexión de la cuenta de LinkedIn'</t>
+          <t>Controles de acceso: requieren que los dispositivos se marquen como compatibles</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Configuración de diagnóstico</t>
+          <t>Dominios personalizados</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilitado y enviar al área de trabajo de Log Analytics con Sentinel</t>
+          <t>Solo se registran los dominios de cliente validados</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM habilitado</t>
+          <t>Configuración de diagnóstico</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Administración de identidades privilegiada habilitada</t>
+          <t>Habilitado y enviado al área de trabajo de Log Analytics con Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>PIM habilitado</t>
+          <t>Aplicaciones empresariales</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implementar el acceso "justo a tiempo" (JIT) para reducir aún más el tiempo de exposición de las cuentas privilegiadas (reducir el acceso permanente)</t>
+          <t>Consentimiento y permisos: permite el consentimiento del usuario para aplicaciones de editores verificados</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,18 +5174,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Aplicaciones empresariales</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configurar directivas de acceso condicional / Controles de acceso</t>
+          <t xml:space="preserve">Consentimiento y permisos: permite el consentimiento del propietario del grupo para los propietarios del grupo seleccionados. </t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352estado</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5220,18 +5220,18 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Condiciones: Ubicaciones restringidas</t>
+          <t>Proveedores de identidad: comprobar que se conocen los proveedores de identidades externos</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: MFA habilitado para todos los usuarios</t>
+          <t>Configuración de colaboración externa: el acceso de usuario invitado está establecido en '¿El acceso de usuario invitado está restringido?'</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5312,18 +5312,18 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: Requerir MFA para administradores</t>
+          <t>Configuración de colaboración externa: configuración de invitación de invitado establecida en "Solo usuarios asignados a roles de administrador específicos"</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controles de acceso: requerir MFA para Azure Management </t>
+          <t xml:space="preserve">Configuración de colaboración externa: habilite el registro de autoservicio de invitado a través de flujos establecidos en "Deshabilitado" </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: Bloquear protocolos heredados</t>
+          <t>Configuración de colaboración externa: restricciones de colaboración establecidas en "Permitir invitaciones a los dominios especificados"</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5450,18 +5450,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: requieren que los dispositivos estén marcados como compatibles</t>
+          <t>Revisiones de acceso: habilitado para todos los grupos</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5501,12 +5501,12 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>¿Existe una política para rastrear las cuentas de usuario invitado (es decir, usar/eliminar/deshabilitar)?</t>
+          <t>¿Existe una política para realizar un seguimiento de las cuentas de usuario invitado (es decir, uso/eliminación/desactivación)?</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t>Política documentada del cliente</t>
+          <t>Política documentada por el cliente</t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Puntuación segura de identidad</t>
+          <t>Puntuación de seguridad de identidad</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Implemente Identity Secure Score basado en las mejores prácticas de su sector</t>
+          <t>Implemente Identity Secure Score basado en las mejores prácticas de su industria</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Cuentas de Break Glass</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Se han creado al menos dos cuentas de break glass y existe una política en torno a su uso.</t>
+          <t>Gestión de identidades con privilegios habilitada</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,17 +5633,17 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Control del acceso a máquinas virtuales mediante la directiva de Azure</t>
+          <t>Implementar el acceso "justo a tiempo" (JIT) para reducir aún más el tiempo de exposición de las cuentas privilegiadas (reducir el acceso permanente)</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5679,23 +5679,23 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Restablecimiento de contraseña</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduzca la variabilidad en la configuración e implementación de máquinas virtuales aprovechando las plantillas</t>
+          <t>Se ha verificado que cumple los requisitos de la directiva de restablecimiento de contraseña de autoservicio.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5725,17 +5725,17 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Restablecimiento de contraseña</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro para implementar VMS al reducir quién tiene acceso a los recursos a través de la gobernanza</t>
+          <t>Establecer el número de días antes de que se solicite a los usuarios que vuelvan a confirmar la información de autenticación no se establece en cero</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5771,23 +5771,23 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Restablecimiento de contraseña</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use varias máquinas virtuales para sus cargas de trabajo para una mejor disponibilidad </t>
+          <t>Establecer el número de métodos necesarios para restablecer la contraseña están seleccionados</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5817,23 +5817,23 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implementar y probar una solución de recuperación ante desastres </t>
+          <t>No sincronice cuentas con el acceso con privilegios más alto a los recursos locales mientras sincroniza sus sistemas de identidad empresariales con directorios en la nube.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5863,23 +5863,23 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Conjuntos de disponibilidad</t>
+          <t>Limitar el número de administradores globales a menos de 5</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5908,23 +5908,23 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidad</t>
+          <t>Usar grupos para asignaciones de roles de Azure AD y delegar la asignación de roles</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5954,23 +5954,23 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tolerancia a fallos regional </t>
+          <t>Asegúrese de que todos los administradores de impacto crítico estén administrados por el directorio empresarial para seguir la aplicación de políticas de la organización.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6000,17 +6000,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Protección contra el malware</t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Instalar soluciones antimalware</t>
+          <t>Configurar revisiones de acceso periódicas para revocar permisos innecesarios a lo largo del tiempo</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6046,23 +6046,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Protección contra el malware</t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integre la solución antimalware con Security Center</t>
+          <t>Asegúrese de que los administradores de impacto crítico utilicen una estación de trabajo con protecciones de seguridad y supervisión elevadas</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6091,17 +6091,17 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Administrar actualizaciones de máquinas virtuales</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Mantenga actualizadas las máquinas virtuales mediante La administración de actualizaciones con Automatización de Azure</t>
+          <t>Establezca un único directorio empresarial para administrar las identidades de los empleados a tiempo completo y los recursos de la empresa.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6136,23 +6136,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Administrar actualizaciones de máquinas virtuales</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que las imágenes de Windows para la implementación tengan el nivel más reciente de actualizaciones </t>
+          <t>Sincronice su identidad en la nube con sus sistemas de identidad existentes.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6181,17 +6181,17 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Administrar actualizaciones de máquinas virtuales</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Aplique rápidamente actualizaciones de seguridad a las máquinas virtuales con Microsoft Defender para la nube</t>
+          <t>Use los servicios de identidad en la nube para hospedar cuentas que no son de empleados, como proveedores, socios y clientes, en lugar de incluirlos en su directorio local.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6227,17 +6227,17 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Cifre sus VHD</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Habilite el cifrado en sus máquinas virtuales</t>
+          <t>Deshabilite los protocolos heredados inseguros para los servicios orientados a Internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6272,17 +6272,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Cifre sus VHD</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agregar clave de cifrado de clave (KEK) para una capa adicional de seguridad para el cifrado </t>
+          <t>Habilitar el inicio de sesión único</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6318,23 +6318,23 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Cifre sus VHD</t>
+          <t>Configuración del usuario</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Tome una instantánea de los discos antes del cifrado para fines de reversión</t>
+          <t>Desactive 'Los usuarios pueden registrar aplicaciones'</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6364,17 +6364,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t>Configuración del usuario</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que solo el grupo de red central tiene permisos para los recursos de red </t>
+          <t>Restringir el acceso al portal administrativo (portal.azure.com) solo a los administradores</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223E138</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6410,17 +6410,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t>Configuración del usuario</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Identifique y corrija las máquinas virtuales expuestas que permiten el acceso desde 'CUALQUIER' complemento de IP de origen</t>
+          <t>Desactiva la 'conexión de la cuenta de LinkedIn'</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6456,17 +6456,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t>Reglas de análisis</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restringir los puertos de administración (RDP, SSH) mediante el acceso justo a tiempo</t>
+          <t xml:space="preserve">El cliente ha habilitado las reglas de Analytics y ha configurado los incidentes </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6502,17 +6502,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t xml:space="preserve">Arquitectura </t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Quitar el acceso a Internet e implementar servidores de salto para RDP</t>
+          <t>Todos los inquilinos que contienen tienen Sentinel habilitado en al menos un área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6548,17 +6548,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t xml:space="preserve">Arquitectura </t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Elimine el inicio de sesión directo en los servidores que usan RDP / SSH de Internet e implemente VPN o ruta rápida</t>
+          <t>El cliente entiende la arquitectura de Sentinel</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6593,23 +6593,23 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t xml:space="preserve">Arquitectura </t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Aproveche Azure Bastion como su agente RDP/SSH para mayor seguridad y reducción de la huella</t>
+          <t>El cliente sabe cómo monitorear incidentes en múltiples instancias de Sentinel</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
       <c r="E127" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitectura </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Todos los inquilinos que contienen Sentinel tiene habilitado en al menos un área de trabajo de Log Analytics</t>
+          <t>Azure Active Directory en versión configurada y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitectura </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>El cliente entiende la arquitectura de Sentinel</t>
+          <t>Azure Active Directory Identity Protection está configurado y hoy se muestra 'Last Log Received'</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6733,18 +6733,18 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitectura </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>El cliente sabe cómo supervisar los incidentes en varias instancias de Sentinel</t>
+          <t>Azure Activity está configurado y 'Last Log Received' se muestra hoy</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,18 +6778,18 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>No Hay incidencias abierto más de 24 horas</t>
+          <t>Microsoft Defender para la nube está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
       <c r="E131" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Noticias y Guías</t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>A los clientes se les ha mostrado la pestaña Noticias y guías</t>
+          <t>Azure Firewall está configurado y se muestra hoy 'Last Log Received'</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA configurado (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>El Firewall de Windows está configurado y el 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory en configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Security Events está configurado con AMA y 'Last Log Received' se muestra hoy</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Identity Protection está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Eventos de seguridad: compruebe que los equipos de Azure están conectados y envían datos al área de trabajo</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Activity está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Eventos de seguridad: compruebe que los equipos que no son de Azure están conectados y envían datos al área de trabajo</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender para Cloud está configurado y 'Last Log Received' se muestra hoy</t>
+          <t>Conector para AWS</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Conector para GCP</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7138,18 +7138,18 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Noticias y Guías</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Firewall de Windows está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Al cliente se le ha mostrado la pestaña Noticias y guías</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7183,18 +7183,18 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Security Events está configurado con AMA y 'Last Log Received' se muestra hoy</t>
+          <t>No hay incidentes abiertos más de 24 horas</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7228,18 +7228,18 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Configuración</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Eventos de seguridad: compruebe que los equipos de Azure están conectados y envían datos al área de trabajo</t>
+          <t>El cliente no tiene un límite diario habilitado</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
       <c r="E141" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7250,14 +7250,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7273,18 +7273,18 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Eventos de seguridad: compruebe que los equipos que no son de Azure están conectados y envían datos al área de trabajo</t>
+          <t>UEBA configurado (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7295,14 +7295,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7313,17 +7313,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conector para AWS</t>
+          <t>Control del acceso a máquinas virtuales mediante Azure Policy</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7358,23 +7358,23 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Conector para GCP</t>
+          <t>Reduzca la variabilidad en la configuración e implementación de máquinas virtuales aprovechando las plantillas</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
       <c r="E144" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7385,14 +7385,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7403,23 +7403,23 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Reglas de análisis</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">El cliente ha habilitado las reglas de Analytics y ha configurado incidentes </t>
+          <t>Proteja el acceso privilegiado para implementar VMS reduciendo quién tiene acceso a los recursos a través de la gobernanza</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
       <c r="E145" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7448,23 +7448,23 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Configuración</t>
+          <t>Cifrar los VHD</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>El cliente no tiene un límite diario habilitado</t>
+          <t>Habilitar el cifrado en las máquinas virtuales</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,17 +7493,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configuración</t>
+          <t>Cifrar los VHD</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Implementación de Azure Firewall Premium</t>
+          <t xml:space="preserve">Agregar clave de cifrado de clave (KEK) para una capa adicional de seguridad para el cifrado </t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7538,23 +7538,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Configuración</t>
+          <t>Cifrar los VHD</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Ajuste de cuatro cero/fuerza habilitado a través de Azure Firewall</t>
+          <t>Tomar una instantánea de los discos antes del cifrado para fines de reversión</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7583,17 +7583,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC establecido para habilitar solo usuarios autorizados</t>
+          <t xml:space="preserve">Use varias máquinas virtuales para sus cargas de trabajo para una mejor disponibilidad </t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7628,17 +7628,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Configuración de diagnóstico</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnóstico habilitado y envío de métricas a un área de trabajo de Log Analytics </t>
+          <t xml:space="preserve">Implementar y probar una solución de recuperación ante desastres </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7673,23 +7673,23 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Los concentradores y las redes virtuales están protegidos o conectados a través de Firewall Premium</t>
+          <t>Conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7718,23 +7718,23 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Los controles de acceso están configurados (RBAC)</t>
+          <t>Zonas de disponibilidad</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7763,23 +7763,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directiva: la directiva principal está configurada </t>
+          <t xml:space="preserve">Tolerancia a fallos regional </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7808,17 +7808,17 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Administrar actualizaciones de VM</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Directiva: se definen las colecciones de reglas</t>
+          <t>Mantenga las máquinas virtuales actualizadas mediante Update Management with Azure Automation</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7853,23 +7853,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Administrar actualizaciones de VM</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Política: Se definen las políticas de DNAT</t>
+          <t xml:space="preserve">Asegúrese de que las imágenes de Windows para la implementación tengan el nivel más reciente de actualizaciones </t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7880,14 +7880,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7898,17 +7898,17 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Administrar actualizaciones de VM</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Se definen las reglas de red</t>
+          <t>Aplique rápidamente actualizaciones de seguridad a las máquinas virtuales con Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7925,14 +7925,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7943,17 +7943,17 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Protéjase contra el malware</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Se definen las reglas de aplicación</t>
+          <t>Instalar soluciones antimalware</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7988,23 +7988,23 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Protéjase contra el malware</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Característica entendida y aplicada o no aplicada</t>
+          <t>Integrar la solución antimalware con Security Center</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8033,17 +8033,17 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Inteligencia de amenazas: Configurado para alertar y denegar</t>
+          <t xml:space="preserve">Asegúrese de que solo el grupo de red central tiene permisos para los recursos de red </t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8078,17 +8078,17 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Inteligencia de amenazas: Lista permitida (justifique si se están utilizando, es decir, rendimiento)</t>
+          <t>Identifique y corrija las máquinas virtuales expuestas que permiten el acceso desde 'CUALQUIER' dirección IP de origen</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8123,17 +8123,17 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS habilitado</t>
+          <t>Restringir los puertos de administración (RDP, SSH) mediante el acceso Just-in-Time</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8168,17 +8168,17 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS habilitados</t>
+          <t>Eliminar el acceso a Internet e implementar servidores jump para RDP</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8213,17 +8213,17 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configurado </t>
+          <t>Elimine el inicio de sesión directo en servidores que usan RDP / SSH de Internet e implemente VPN o ruta rápida</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8258,23 +8258,23 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Protección DDOS</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP públicas de Firewall</t>
+          <t>Aproveche Azure Bastion como agente RDP/SSH para mayor seguridad y reducción del espacio</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8375,14 +8375,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8420,14 +8420,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8465,14 +8465,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8510,14 +8510,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8562,7 +8562,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8600,14 +8600,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8616,360 +8616,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10527,7 +11247,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10611,7 +11331,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10667,26 +11387,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10797,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Esta comprobación aún no se ha analizado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -10824,7 +11562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10871,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/spreadsheet/security_checklist.es.xlsx
+++ b/spreadsheet/security_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Lista de comprobación de revisión de seguridad de Azure</t>
+          <t>Azure Security Review Checklist</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Habilitación de Security Center/Defender en todas las suscripciones</t>
+          <t>RBAC configurado para habilitar solo usuarios autorizados</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
+          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Configuración</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Security Center/Defender habilitado en todos los espacios de trabajo de Log Analytics</t>
+          <t>Azure Firewall Premium implementado</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
+          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Configuración</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Conjunto de recopilación de datos en 'Común'</t>
+          <t>Quad zero/force tunning habilitado a través de Azure Firewall</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
+          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
+          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Protección DDOS</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Las funciones de seguridad mejoradas de Defender for Cloud están habilitadas</t>
+          <t>Habilitado para IP públicas de Firewall</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
+          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Configuración de diagnóstico</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Aprovisionamiento automático habilitado según la directiva de la empresa (la directiva debe existir)</t>
+          <t xml:space="preserve">Diagnósticos habilitados y envío de métricas a un área de trabajo de Log Analytics </t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
+          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
+          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,23 +1325,23 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Notificaciones por correo electrónico habilitadas según la directiva de la empresa (la directiva debe existir)</t>
+          <t>Los concentradores y las redes virtuales están protegidos o conectados a través de Firewall Premium</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
+          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1371,23 +1371,23 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se seleccionan las opciones Habilitar integraciones </t>
+          <t>Directiva: Los controles de acceso están configurados (RBAC)</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
+          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>La integración de CI/CD está configurada</t>
+          <t xml:space="preserve">Directiva: la directiva principal está configurada </t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>5b7bae4-4º-45e8-a79e-2e86667313c5</t>
+          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>La exportación continua 'Event Hub' está habilitada si se utiliza SIEM de 3ª parte</t>
+          <t>Directiva: se definen las colecciones de reglas</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
+          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>La exportación continua 'Log Analytics Workspace' está habilitada si no se usa Azure Sentinel</t>
+          <t>Política: se definen las políticas DNAT</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
+          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,17 +1555,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Conector en la nube habilitado para AWS</t>
+          <t>Directiva: se definen las reglas de red</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
+          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Conector en la nube habilitado para GCP</t>
+          <t>Directiva: se definen las reglas de aplicación</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
+          <t>https://docs.microsoft.com/azure/firewall/features</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
+          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Precios y configuración</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Si usa el proxy de aplicación de Azure AD, considere la posibilidad de integrarse con Microsoft Defender for Cloud Apps para supervisar el acceso a las aplicaciones en tiempo real y aplicar controles de seguridad avanzados.</t>
+          <t>DNS: Característica entendida y aplicada o no aplicada</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
+          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
+          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Recomendaciones</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Todas las recomendaciones remediadas o deshabilitadas si no es necesario.</t>
+          <t>Inteligencia de amenazas: configurado para alertar y denegar</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
+          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,24 +1739,20 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Recomendaciones</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Puntuación de seguridad&gt;70%</t>
-        </is>
-      </c>
-      <c r="D22" s="22" t="inlineStr">
-        <is>
-          <t>El objetivo mínimo de Microsoft para todos los clientes es del 70 %</t>
-        </is>
-      </c>
+          <t>Inteligencia de amenazas: lista de permitidos (justificar si se están utilizando, es decir, rendimiento)</t>
+        </is>
+      </c>
+      <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1770,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
+          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1778,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
+          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1789,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Alertas de seguridad</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Las alertas de seguridad contienen solo las generadas en las últimas 24 horas (corregir o deshabilitar las alertas de seguridad más antiguas)</t>
+          <t>TLS habilitado</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1816,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
+          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1824,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
+          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1835,23 +1831,23 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Libros</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Si la exportación continua está habilitada, los libros predeterminados se publican en el panel de seguridad personalizado</t>
+          <t>IDPS habilitado</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
+          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
+          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Azure Firewall</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Comunidad</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>El cliente es consciente del valor de la página 'Comunidad' y tiene una cadencia regular configurada para revisar</t>
+          <t xml:space="preserve">SNAT: Configurado </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
+          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
+          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,24 +1923,20 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Puntuación segura</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Se muestran todas las suscripciones protegidas por Security Center (sin filtro de suscripción establecido)</t>
-        </is>
-      </c>
-      <c r="D26" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente - Transparencia</t>
-        </is>
-      </c>
+          <t>AppGW RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1958,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1966,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
+          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1977,17 +1969,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Cumplimiento normativo</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Los controles de cumplimiento son ecológicos para cualquier requisito de cumplimiento requerido</t>
+          <t xml:space="preserve">AppGW Todos los servicios web externos están detrás de Application Gateways con WAF habilitado </t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2004,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
+          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2022,24 +2014,20 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Azure Defender</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Las vulnerabilidades de VM de alta gravedad son cero (vacías)</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t xml:space="preserve">AppGW Todos los servicios web internos están detrás de Application Gateways con WAF habilitado </t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2053,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
+          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2071,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Application Gateway</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Los concentradores están protegidos por un Firewall de Azure</t>
+          <t>AppGW - External facing tiene TLS/SSL habilitado y redirige todo el tráfico a 443 (sin tráfico del puerto 80)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2098,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
+          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
+          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2116,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Conectividad</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Las redes virtuales están protegidas por un firewall</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>Uso de ExpressRoute o VPN para acceder a recursos de Azure desde entornos locales</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
+          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2165,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Protección DDOS</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>DDoS Standard habilitado</t>
+          <t>Habilitado para IP públicas de firewall (todas las IP públicas)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
+          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2210,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Defender para la nube</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Cobertura</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Verifique que todas las suscripciones estén cubiertas (consulte los precios y la configuración para modificar)</t>
+          <t>Front Door RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2237,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2245,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
+          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2256,17 +2240,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>IP públicas</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las máquinas virtuales con IP públicas deben estar protegidas por NSG </t>
+          <t>Front Door está asociado con una política WAF</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2283,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2291,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
+          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2302,24 +2286,20 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>IP públicas</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales con direcciones IP públicas se mueven detrás de Azure Firewall Premium</t>
-        </is>
-      </c>
-      <c r="D34" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>La directiva TLS/SSL de puerta delantera está configurada</t>
+        </is>
+      </c>
+      <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2333,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2341,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
+          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2352,24 +2332,20 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>IP públicas</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales que no necesitan DIRECCIONES IP públicas no tienen IP públicas (es decir, solo RDP interno)</t>
-        </is>
-      </c>
-      <c r="D35" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>El puerto de redireccionamiento de la puerta delantera 80 al puerto 443 está configurado (oyentes)</t>
+        </is>
+      </c>
+      <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2383,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2391,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
+          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2402,23 +2378,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>Puerta delantera</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>NSG RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>Los registros de diagnóstico de Front Door envían ApplicationGatewayAccessLog y ApplicationGateway FirewallLog a Sentinel LAW</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2429,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
+          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2437,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
+          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2448,27 +2424,23 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Las reglas de seguridad de entrada de NSG no contienen un * (comodín) en el campo Origen</t>
-        </is>
-      </c>
-      <c r="D37" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>NSG RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
+          <t>158e3ea3-a93c-42de-9e31-65c3a87a04b7</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2498,27 +2470,27 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Las reglas de seguridad salientes de NSG se utilizan para controlar el tráfico a direcciones IP específicas para el tráfico no enrutado a través de un firewall</t>
+          <t>Las reglas de seguridad de entrada de NSG no contienen un * (comodín) en el campo Origen</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2537,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
+          <t>a209939b-da47-4778-b24c-116785c2fa55</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2548,27 +2520,27 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>NSG no tiene Source como * (comodín) en su lugar.</t>
+          <t>Las reglas de seguridad salientes de NSG se usan para controlar el tráfico a direcciones IP específicas para el tráfico que no se enruta a través de un firewall</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2559,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
+          <t>b56a9480-08be-47d7-b4c4-76b6d8bdcf59</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2598,23 +2570,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>NSG</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Los diagnósticos de NSG envían el tráfico NetworkSecurityGroupEvent y NetworkSecurityGroupRuleCounter a Sentinel LAW</t>
-        </is>
-      </c>
-      <c r="D40" s="22" t="n"/>
+          <t>NSG no tiene Source como * (comodín) en su lugar.</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2625,7 +2601,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-groups-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2633,7 +2609,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
+          <t>bce65de8-a13f-4988-9946-8d66a786d60f</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2644,17 +2620,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>UDR RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>NSG Diagnostics envía tráfico NetworkSecurityGroupEvent y NetworkSecurityGroupRuleCounter a Sentinel LAW</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2671,7 +2647,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-nsg-manage-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2679,7 +2655,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
+          <t>a6c97be9-955d-404c-9c49-c986cb2d1215</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2690,17 +2666,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>IP públicas</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Si Zero Trust, los UDR se usan para enviar todo el tráfico a Azure Firewall Premium</t>
+          <t xml:space="preserve">Las máquinas virtuales con IP públicas deben estar protegidas por NSG </t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2717,7 +2693,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2725,7 +2701,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
+          <t>4df585ec-dce9-4793-a7bc-db3b51eb2eb0</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2736,27 +2712,27 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>IP públicas</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Los UDR que no envían todo el tráfico a AzureFirewallPremium son conocidos y documentados.</t>
+          <t>Las máquinas virtuales con direcciones IP públicas se mueven detrás de Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2767,7 +2743,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/public-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2775,7 +2751,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
+          <t>3dda6e59-d7c8-4a2e-bb11-7d6769af669c</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2786,20 +2762,24 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>IP públicas</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>El cliente está familiarizado con los valores predeterminados de red de Azure / enrutamiento predeterminado de SDN en Azure</t>
-        </is>
-      </c>
-      <c r="D44" s="22" t="n"/>
+          <t>Las máquinas virtuales que no necesitan IP públicas no tienen IP públicas (es decir, solo RDP interno)</t>
+        </is>
+      </c>
+      <c r="D44" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -2813,7 +2793,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2821,7 +2801,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
+          <t>a48e5a85-f222-43ec-b8bb-12308ca5017f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2832,24 +2812,20 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>RBAC de red virtual se usa para restringir el acceso al equipo de seguridad de red</t>
-        </is>
-      </c>
-      <c r="D45" s="22" t="inlineStr">
-        <is>
-          <t>Mejores prácticas operativas del cliente: verificar</t>
-        </is>
-      </c>
+          <t>UDR RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2863,14 +2839,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
+          <t>aa124b6e-4df5-485e-adce-9793b7bcdb3b</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2881,17 +2857,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las recomendaciones de seguridad de la red virtual se han corregido y no hay redes virtuales "en riesgo" </t>
+          <t>Si es de confianza cero, se usan UDR para enviar todo el tráfico a Azure Firewall Premium</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2908,7 +2884,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2916,7 +2892,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
+          <t>51eb2eb0-3dda-46e5-ad7c-8a2edb117d67</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2927,23 +2903,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Redes virtuales</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Se comprenden las conexiones de emparejamiento de red virtual y se documentan los flujos de tráfico esperados</t>
-        </is>
-      </c>
-      <c r="D47" s="22" t="n"/>
+          <t>Los UDR que no envían todo el tráfico a AzureFirewallPremium son conocidos y documentados.</t>
+        </is>
+      </c>
+      <c r="D47" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2954,7 +2934,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2962,7 +2942,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
+          <t>69af669c-a48e-45a8-9f22-23ece8bb1230</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2973,7 +2953,7 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
@@ -2983,7 +2963,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Los extremos de servicio de red virtual están en uso, no existen extremos de servicio público heredados</t>
+          <t>El cliente está familiarizado con los valores predeterminados de red de Azure / enrutamiento predeterminado de SDN en Azure</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3000,14 +2980,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview#default</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
+          <t>8ca5017f-158e-43ea-9a93-c2de7e3165c3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3018,7 +2998,7 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
@@ -3028,13 +3008,17 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Los puntos de conexión privados de red virtual están en uso para permitir el acceso desde entornos locales, no existen puntos de enlace públicos heredados</t>
-        </is>
-      </c>
-      <c r="D49" s="22" t="n"/>
+          <t>RBAC de red virtual se usa para restringir el acceso al equipo de seguridad de red</t>
+        </is>
+      </c>
+      <c r="D49" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas del cliente: verificar</t>
+        </is>
+      </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3045,14 +3029,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
+          <t>https://github.com/MicrosoftDocs/azure-docs/issues/53672</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
+          <t>a87a04b7-a209-4939-ada4-7778f24c1167</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3063,7 +3047,7 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
@@ -3073,7 +3057,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Supervisión de red virtual habilitada</t>
+          <t xml:space="preserve">Se corrigen las recomendaciones de seguridad de red virtual y no hay redes virtuales "en riesgo" </t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3090,7 +3074,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/policy-reference</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3098,7 +3082,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
+          <t>85c2fa55-b56a-4948-808b-e7d7e4c476b6</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3109,7 +3093,7 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
@@ -3119,7 +3103,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Proteger el tráfico entre pods mediante directivas de red en Azure Kubernetes Service (AKS)</t>
+          <t>Se comprenden las conexiones del mismo nivel de red virtual y se documentan los flujos de tráfico esperados</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3136,7 +3120,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3144,7 +3128,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2055b29b-ade4-4th-8e8c-39ec94666731</t>
+          <t>d8bdcf59-bce6-45de-aa13-f98879468d66</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3155,7 +3139,7 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
@@ -3165,7 +3149,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>El cliente de VNet NVA (dispositivos) sigue el patrón de arquitectura publicado</t>
+          <t>Los extremos de servicio de red virtual están en uso, no existen extremos de servicio público heredados</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3182,7 +3166,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-service-endpoints-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3190,7 +3174,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
+          <t>a786d60f-a6c9-47be-a955-d04c3c49c986</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3201,7 +3185,7 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
@@ -3211,7 +3195,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>La configuración de diagnóstico de red virtual está habilitada y envía VMProtectionAlerts a Azure Sentinel LAW</t>
+          <t>Los extremos privados de red virtual se usan para permitir el acceso desde entornos locales, no existen extremos públicos heredados</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3228,14 +3212,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
+          <t>1f625659-ee55-480a-9824-9c931213dbd7</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3246,17 +3230,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Usar ExpressRoute o VPN para acceder a los recursos de Azure desde entornos locales</t>
+          <t>Supervisión de redes virtuales habilitada</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3273,7 +3257,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/connectivity-to-azure</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3281,7 +3265,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>468155ab-c916-44e9-a09a-ed8c44cf3b2b</t>
+          <t>fb012f70-943f-4630-9722-ea39d2b1ce63</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3292,17 +3276,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWAN RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>Proteja el tráfico entre pods mediante directivas de red en Azure Kubernetes Service (AKS)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3319,14 +3303,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/kubernetes-network-policies</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
+          <t>2055b29b-ade4-4aad-8e8c-39ec94666731</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3337,17 +3321,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>El cliente de VWAN está utilizando Secure Hub o Firewall externo para enrutar y monitorear el tráfico.</t>
+          <t>El cliente de NVA (dispositivos) de red virtual sigue el patrón de arquitectura publicado</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3364,14 +3348,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-scenario-udr-gw-nva</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
+          <t>3c005674-c1e9-445b-959c-373e7ed71623</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3382,17 +3366,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Redes virtuales</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>AppGW RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>La configuración de diagnóstico de red virtual está habilitada y el envío de VMProtectionAlerts a Azure Sentinel LAW</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3409,14 +3393,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/monitor-virtual-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>1213dbd7-fb01-42f7-8943-f6304722ea39</t>
+          <t>b375a917-ecbe-448f-ae64-dd7df2e8bbbc</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3427,17 +3411,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos los servicios web externos están conectados a Application Gateways con WAF habilitado </t>
+          <t>VWAN RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3454,14 +3438,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>d2b1ce63-2055-4b29-aade-4aad1e8c39ec</t>
+          <t>bd8ac2aa-ebca-42a4-9da1-dbf3dd992481</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3472,17 +3456,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AppGW Todos los servicios web internos están integrados en Application Gateways con WAF habilitado </t>
+          <t>El Cliente de VWAN está utilizando Secure Hub o Firewall externo para enrutar y monitorear el tráfico.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3499,14 +3483,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/configuration-front-end-ip</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-global-transit-network-architecture</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>94666731-3c00-4567-9c1e-945b459c373e</t>
+          <t>718d1dca-1f62-4565-aee5-580a38249c93</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3517,20 +3501,24 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Azure Defender</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>AppGW - La cara externa tiene TLS / SSL habilitado y redirige todo el tráfico a 443 (sin tráfico del puerto 80)</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>Las vulnerabilidades de VM de alta gravedad son cero (vacías)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas para el cliente: verificar</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -3544,14 +3532,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/application-gateway/ssl-overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/remediate-vulnerability-findings-vm</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7ed71623-b375-4a91-9ecb-e48fbe64dd7d</t>
+          <t>65e8d9a3-aec2-418e-9436-b0736db55f57</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3562,23 +3550,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Comunidad</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Front Door RBAC se utiliza para restringir el acceso al equipo de seguridad de red</t>
+          <t>El cliente es consciente del valor de la página "Comunidad" y tiene una cadencia regular configurada para revisar</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3589,14 +3577,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-cloud/bd-p/MicrosoftDefenderCloud</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>f2e8bbbc-4681-455a-ac91-64e9909aed8c</t>
+          <t>98a535e7-3789-47e7-8ca7-da7be9962a15</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3607,17 +3595,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Cobertura</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Front Door está asociado a una política WAF</t>
+          <t>Verifique que todas las suscripciones estén cubiertas (consulte precios y configuraciones para modificar)</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3634,14 +3622,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/baselines/front-door-security-baseline?toc=/azure/frontdoor/TOC.json</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44cf3b2b-3818-4baf-a2cf-2149d013a923</t>
+          <t>5119bf8e-8f58-4542-a7d9-cdc166cd072a</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3652,23 +3640,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>La directiva TLS/SSL de puerta principal está configurada</t>
+          <t>Los concentradores están protegidos por Azure Firewall</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3679,7 +3667,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-custom-domain-https</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-network-security/azure-firewall-manager-is-now-integrated-with-azure-security/ba-p/2228679</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3687,7 +3675,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce574dcc-bd8a-4c2a-aebc-a2a44da1dbf3</t>
+          <t>9603334b-df9c-4c23-918d-b61171265f4b</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3698,23 +3686,27 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>El puerto de redirección de la puerta principal 80 al puerto 443 está configurado (oyentes)</t>
-        </is>
-      </c>
-      <c r="D64" s="22" t="n"/>
+          <t>Las redes virtuales están protegidas por un firewall</t>
+        </is>
+      </c>
+      <c r="D64" s="22" t="inlineStr">
+        <is>
+          <t>Prácticas recomendadas operativas para el cliente: verificar</t>
+        </is>
+      </c>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3725,7 +3717,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-url-redirect</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/network-best-practices</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3733,7 +3725,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>dd992481-718d-41dc-a1f6-25659ee5580a</t>
+          <t>b47a393a-0803-4272-a479-8b1578a219a4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3744,23 +3736,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Puerta frontal</t>
+          <t>Administrador de cortafuegos</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Los registros de diagnóstico de Front Door envían ApplicationGatewayAccessLog &amp;ApplicationGateway FirewallLog a Sentinel LAW</t>
+          <t>DDoS estándar habilitado</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3771,7 +3763,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/frontdoor/front-door-diagnostics</t>
+          <t>https://azure.microsoft.com/blog/how-azure-security-center-detects-ddos-attack-using-cyber-threat-intelligence/</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3779,7 +3771,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>38249c93-1213-4dbd-9fb0-12f70943f630</t>
+          <t>6ceb5443-5025-4922-9442-92bb628537a5</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3790,17 +3782,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Protección DDOS</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP públicas de Firewall (todas las IP públicas)</t>
+          <t>Security Center/Defender habilitar en todas las suscripciones</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3817,14 +3809,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-get-started</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722ea39-d2b1-4ce6-9205-5b29bade4aad</t>
+          <t>54174158-33fb-43ae-9c2d-e743165c3acb</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3835,17 +3827,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Establezca un directorio empresarial único para administrar las identidades de los empleados a tiempo completo y los recursos empresariales.</t>
+          <t>Security Center/Defender habilitado en todas las áreas de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3862,7 +3854,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3870,7 +3862,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
+          <t>349f0364-d28d-442e-abbb-c868255abc91</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3881,23 +3873,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Sincronice su identidad en la nube con sus sistemas de identidad existentes.</t>
+          <t>Recopilación de datos establecida en 'Común'</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3908,7 +3900,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-data-collection?tabs=autoprovision-feature#what-event-types-are-stored-for-common-and-minimal</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3916,7 +3908,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
+          <t>64e9a19a-e28c-484c-93b6-b7818ca0e6c4</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3927,17 +3919,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use los servicios de identidad en la nube para hospedar cuentas que no sean de empleados, como proveedores, socios y clientes, en lugar de incluirlos en su directorio local.</t>
+          <t>Todas las funciones de seguridad mejoradas de Defender for Cloud están habilitadas</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3954,7 +3946,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
+          <t>https://docs.microsoft.com/azure/security-center/enable-azure-defender</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3962,7 +3954,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
+          <t>2149d414-a923-4c35-94d1-1029bd6aaf11</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3973,23 +3965,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los protocolos heredados inseguros para los servicios orientados a Internet.</t>
+          <t>Aprovisionamiento automático habilitado según la directiva de la empresa (la directiva debe existir)</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4000,7 +3992,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-enable-data-collection</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4008,7 +4000,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
+          <t>e6b84ee5-ef43-4d29-a248-1718d5d1f5f7</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4019,23 +4011,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Arrendatario</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el inicio de sesión único</t>
+          <t>Notificaciones por correo electrónico habilitadas según la directiva de la empresa (la directiva debe existir)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4046,7 +4038,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-provide-security-contact-details</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4054,7 +4046,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
+          <t>25759e35-680e-4782-9ac9-32213d027ff4</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4065,23 +4057,23 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>No sincronice cuentas con el acceso con privilegios más altos a los recursos locales mientras sincroniza sus sistemas de identidad empresarial con directorios en la nube.</t>
+          <t xml:space="preserve">Las opciones de habilitación de integraciones están seleccionadas </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4092,7 +4084,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-wdatp?WT.mc_id=Portal-Microsoft_Azure_Security_CloudNativeCompute&amp;tabs=windows</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4100,7 +4092,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
+          <t>12f70993-0631-4583-9ee7-9d6c6d363206</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4111,23 +4103,23 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Limitar el número de administradores globales a menos de 5</t>
+          <t>La integración CI/CD está configurada</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4138,7 +4130,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
+          <t>https://docs.microsoft.com/azure/security-center/defender-for-container-registries-cicd</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4146,7 +4138,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
+          <t>5b7abae4-4aad-45e8-a79e-2e86667313c5</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4157,17 +4149,17 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Usar grupos para asignaciones de roles de Azure AD y delegar la asignación de roles</t>
+          <t>La exportación continua 'Event Hub' está habilitada si se usa SIEM de 3rd party</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4184,7 +4176,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4192,7 +4184,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
+          <t>05675c5e-985b-4859-a774-f7e371623b87</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4203,23 +4195,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los administradores de impacto crítico sean administrados por el directorio empresarial para seguir la aplicación de las políticas de la organización.</t>
+          <t>La exportación continua 'Área de trabajo de Log Analytics' está habilitada si no se usa Azure Sentinel</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4230,7 +4222,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
+          <t>https://docs.microsoft.com/azure/security-center/continuous-export?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4238,7 +4230,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
+          <t>5a917e1f-349f-4036-9d28-d42e8bbbc868</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4249,17 +4241,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Configurar revisiones de acceso recurrentes para revocar permisos innecesarios a lo largo del tiempo</t>
+          <t>Conector de nube habilitado para AWS</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4276,7 +4268,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-aws?WT.mc_id=Portal-Microsoft_Azure_Security</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4284,7 +4276,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
+          <t>255abc91-64e9-4a19-ae28-c84c43b6b781</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4295,23 +4287,23 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Administración privilegiada</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Garantice que los administradores de impacto crítico utilicen una estación de trabajo con protecciones de seguridad y supervisión elevadas</t>
+          <t>Conector en la nube habilitado para GCP</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4322,7 +4314,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
+          <t>https://docs.microsoft.com/azure/security-center/quickstart-onboard-gcp</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4330,7 +4322,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
+          <t>8ca0e6c4-2149-4d41-9a92-3c3574d11029</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4341,23 +4333,23 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Precios y configuración</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Proveedores de identidad: verifique que los proveedores de identidad externos sean conocidos</t>
+          <t>Si usa el proxy de aplicación de Azure AD, considere la posibilidad de integrarlo con Microsoft Defender para aplicaciones en la nube para supervisar el acceso a las aplicaciones en tiempo real y aplicar controles de seguridad avanzados.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4368,7 +4360,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
+          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy-integrate-with-microsoft-cloud-application-security</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4376,7 +4368,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
+          <t>cce9bdf6-b483-45a0-85ec-c8232b230652</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4387,23 +4379,23 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Recomendaciones</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: ¿El acceso de usuario invitado se establece en '¿El acceso de usuario invitado está restringido?'</t>
+          <t>Todas las recomendaciones se corrigen o deshabilitan si no es necesario.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4414,7 +4406,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4422,7 +4414,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
+          <t>df9cc234-18db-4611-9126-5f4bb47a393a</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4433,20 +4425,24 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Recomendaciones</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: la configuración de invitación de invitado se establece en 'Solo usuarios asignados a roles de administrador específicos'</t>
-        </is>
-      </c>
-      <c r="D80" s="22" t="n"/>
+          <t>Puntuación de seguridad&gt;70%</t>
+        </is>
+      </c>
+      <c r="D80" s="22" t="inlineStr">
+        <is>
+          <t>El objetivo mínimo de Microsoft para todos los clientes es del 70%</t>
+        </is>
+      </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -4460,7 +4456,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/secure-score-security-controls</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
+          <t>08032729-4798-4b15-98a2-19a46ceb5443</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4479,17 +4475,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Cumplimiento normativo</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración de colaboración externa: habilite el registro de autoservicio de invitados a través de flujos establecidos en 'Deshabilitado' </t>
+          <t>Los controles de cumplimiento son ecológicos para cualquier requisito de cumplimiento requerido</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4506,7 +4502,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-compliance-dashboard</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4514,7 +4510,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
+          <t>bdddea8a-487c-4deb-9861-bc3bc14aea6e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4525,20 +4521,24 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Puntuación segura</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Configuración de colaboración externa: restricciones de colaboración establecidas en 'Permitir invitaciones a los dominios especificados'</t>
-        </is>
-      </c>
-      <c r="D82" s="22" t="n"/>
+          <t>Se muestran todas las suscripciones protegidas por Security Center (no se ha establecido ningún filtro de suscripción)</t>
+        </is>
+      </c>
+      <c r="D82" s="22" t="inlineStr">
+        <is>
+          <t>Mejores prácticas operativas para clientes - Transparencia</t>
+        </is>
+      </c>
       <c r="E82" s="22" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -4552,7 +4552,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/enable-enhanced-security</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
+          <t>93846da9-7cc3-4923-856b-22586f4a1641</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4571,17 +4571,17 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Identidades externas</t>
+          <t>Alertas de seguridad</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Revisiones de acceso: habilitado para todos los grupos</t>
+          <t>Las alertas de seguridad contienen solo las generadas en las últimas 24 horas (corregir o deshabilitar alertas de seguridad anteriores)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4598,7 +4598,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/tutorial-security-incident</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4606,7 +4606,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
+          <t>50259226-4429-42bb-9285-37a55119bf8e</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4617,17 +4617,17 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Defender para la nube</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Aplicaciones empresariales</t>
+          <t>Libros</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Consentimiento y permisos: permitir el consentimiento del usuario para aplicaciones de editores verificados</t>
+          <t>Si la exportación continua está habilitada, los libros predeterminados se publican en el panel de seguridad personalizado</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4644,7 +4644,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
+          <t>https://docs.microsoft.com/azure/security-center/custom-dashboards-azure-workbooks</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4652,7 +4652,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
+          <t>8f585428-7d9c-4dc1-96cd-072af9b141a8</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4668,12 +4668,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Aplicaciones empresariales</t>
+          <t>Cuentas de Break Glass</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consentimiento y permisos: Permitir el consentimiento del propietario del grupo para los propietarios de grupos seleccionados </t>
+          <t>Se han creado al menos dos cuentas de vidrio roto y existe una política sobre su uso.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4690,7 +4690,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4698,7 +4698,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
+          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Dominios personalizados</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Solo se registran los dominios de clientes validados</t>
+          <t>Configurar directivas de acceso condicional / Controles de acceso</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4736,7 +4736,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4744,7 +4744,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
+          <t>6e6a8dc4-a20e-427b-9e29-711b1352beee</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4760,18 +4760,18 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Restablecimiento de contraseña</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Requisito de directiva de restablecimiento de contraseña de autoservicio verificado conforme.</t>
+          <t>Condiciones: Ubicaciones restringidas</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4790,7 +4790,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
+          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4806,18 +4806,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Restablecimiento de contraseña</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Establecer el número de días antes de que se pida a los usuarios que vuelvan a confirmar que la información de autenticación no se establece en cero</t>
+          <t>Controles de acceso: MFA habilitado para todos los usuarios</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4828,7 +4828,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4836,7 +4836,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
+          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4852,18 +4852,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Restablecimiento de contraseña</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Se selecciona el número establecido de métodos necesarios para restablecer la contraseña</t>
+          <t>Controles de acceso: requerir MFA para administradores</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4874,7 +4874,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4882,7 +4882,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
+          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar 'Los usuarios pueden registrar aplicaciones'</t>
+          <t xml:space="preserve">Controles de acceso: requiere MFA para Azure Management </t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4920,7 +4920,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4928,7 +4928,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
+          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4944,12 +4944,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Restringir el acceso al portal administrativo (portal.azure.com) solo a los administradores</t>
+          <t>Controles de acceso: bloquear protocolos heredados</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4974,7 +4974,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
+          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Configuración de usuario</t>
+          <t>Directivas de acceso condicional</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite la 'conexión de la cuenta de LinkedIn'</t>
+          <t>Controles de acceso: requieren que los dispositivos se marquen como compatibles</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5012,7 +5012,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5020,7 +5020,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
+          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Configuración de diagnóstico</t>
+          <t>Dominios personalizados</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilitado y enviar al área de trabajo de Log Analytics con Sentinel</t>
+          <t>Solo se registran los dominios de cliente validados</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5058,7 +5058,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy-configure-custom-domain</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
+          <t>bade4aad-1e8c-439e-a946-667313c00567</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>PIM habilitado</t>
+          <t>Configuración de diagnóstico</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Administración de identidades privilegiada habilitada</t>
+          <t>Habilitado y enviado al área de trabajo de Log Analytics con Sentinel</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-monitoring</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5112,7 +5112,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
+          <t>7fb012f7-0943-4f63-8472-2ea39d2b1ce6</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5128,18 +5128,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>PIM habilitado</t>
+          <t>Aplicaciones empresariales</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implementar el acceso "justo a tiempo" (JIT) para reducir aún más el tiempo de exposición de las cuentas privilegiadas (reducir el acceso permanente)</t>
+          <t>Consentimiento y permisos: permite el consentimiento del usuario para aplicaciones de editores verificados</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5158,7 +5158,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
+          <t>9ee5580a-3824-49c9-9121-3dbd7fb012f7</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5174,18 +5174,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Aplicaciones empresariales</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Configurar directivas de acceso condicional / Controles de acceso</t>
+          <t xml:space="preserve">Consentimiento y permisos: permite el consentimiento del propietario del grupo para los propietarios del grupo seleccionados. </t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5196,7 +5196,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/concept-conditional-access-policy-common</t>
+          <t>https://docs.microsoft.com/azure/active-directory/manage-apps/configure-user-consent-groups</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5204,7 +5204,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>6e6a8dc4-a20e-427b-9e29-711b1352estado</t>
+          <t>0943f630-4722-4ea3-ad2b-1ce632055b29</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5220,18 +5220,18 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Condiciones: Ubicaciones restringidas</t>
+          <t>Proveedores de identidad: comprobar que se conocen los proveedores de identidades externos</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5242,7 +5242,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/location-condition</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/compare-with-b2c</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5250,7 +5250,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>079b588d-efc4-4972-ac3c-d21bf77036e5</t>
+          <t>1e8c39ec-9466-4673-83c0-05674c1e945b</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: MFA habilitado para todos los usuarios</t>
+          <t>Configuración de colaboración externa: el acceso de usuario invitado está establecido en '¿El acceso de usuario invitado está restringido?'</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5288,7 +5288,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-azure-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5296,7 +5296,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e6b4bed3-d5f3-4547-a134-7dc56028a71f</t>
+          <t>459c373e-7ed7-4162-9b37-5a917ecbe48f</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5312,18 +5312,18 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: Requerir MFA para administradores</t>
+          <t>Configuración de colaboración externa: configuración de invitación de invitado establecida en "Solo usuarios asignados a roles de administrador específicos"</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5334,7 +5334,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-admin-mfa</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5342,7 +5342,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe1bd15d-d2f0-4d5e-972d-41e3611cc57b</t>
+          <t>be64dd7d-f2e8-4bbb-a468-155abc9164e9</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5358,12 +5358,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controles de acceso: requerir MFA para Azure Management </t>
+          <t xml:space="preserve">Configuración de colaboración externa: habilite el registro de autoservicio de invitado a través de flujos establecidos en "Deshabilitado" </t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5380,7 +5380,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-azure-management</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5388,7 +5388,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>4a4b1410-d439-4589-ac22-89b3d6b57cfc</t>
+          <t>909aed8c-44cf-43b2-a381-8bafa2cf2149</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5404,12 +5404,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: Bloquear protocolos heredados</t>
+          <t>Configuración de colaboración externa: restricciones de colaboración establecidas en "Permitir invitaciones a los dominios especificados"</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5426,7 +5426,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/howto-conditional-access-policy-block-legacy</t>
+          <t>https://docs.microsoft.com/azure/active-directory/external-identities/delegate-invitations</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5434,7 +5434,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>645461e1-a3e3-4453-a3c8-639637a552d6</t>
+          <t>d013a923-ce57-44dc-abd8-ac2aaebca2a4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5450,18 +5450,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Directivas de acceso condicional</t>
+          <t>Identidades externas</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Controles de acceso: requieren que los dispositivos estén marcados como compatibles</t>
+          <t>Revisiones de acceso: habilitado para todos los grupos</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5472,7 +5472,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/require-managed-devices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/governance/deploy-access-reviews</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>7ae9eab4-0fd3-4290-998b-c178bdc5a06c</t>
+          <t>4da1dbf3-dd99-4248-8718-d1dca1f62565</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5501,12 +5501,12 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>¿Existe una política para rastrear las cuentas de usuario invitado (es decir, usar/eliminar/deshabilitar)?</t>
+          <t>¿Existe una política para realizar un seguimiento de las cuentas de usuario invitado (es decir, uso/eliminación/desactivación)?</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t>Política documentada del cliente</t>
+          <t>Política documentada por el cliente</t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Puntuación segura de identidad</t>
+          <t>Puntuación de seguridad de identidad</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Implemente Identity Secure Score basado en las mejores prácticas de su sector</t>
+          <t>Implemente Identity Secure Score basado en las mejores prácticas de su industria</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5592,18 +5592,18 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Cuentas de Break Glass</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Se han creado al menos dos cuentas de break glass y existe una política en torno a su uso.</t>
+          <t>Gestión de identidades con privilegios habilitada</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5614,7 +5614,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-deployment-plan</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5622,7 +5622,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>bcfc6998-a135-4e33-9897-e31c67d68cb6</t>
+          <t>21e44a19-a9dd-4399-afd7-b28dc8355562</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5633,17 +5633,17 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>PIM habilitado</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Control del acceso a máquinas virtuales mediante la directiva de Azure</t>
+          <t>Implementar el acceso "justo a tiempo" (JIT) para reducir aún más el tiempo de exposición de las cuentas privilegiadas (reducir el acceso permanente)</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5660,7 +5660,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/defender-for-cloud/just-in-time-access-usage?tabs=jit-config-asc%2Cjit-request-asc</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5668,7 +5668,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
+          <t>46f4389a-7f42-4c78-b78c-06a63a21a495</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5679,23 +5679,23 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Restablecimiento de contraseña</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Reduzca la variabilidad en la configuración e implementación de máquinas virtuales aprovechando las plantillas</t>
+          <t>Se ha verificado que cumple los requisitos de la directiva de restablecimiento de contraseña de autoservicio.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5706,7 +5706,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/tutorial-enable-sspr</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5714,7 +5714,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
+          <t>4c1e945b-459c-4373-b7ed-71623b375a91</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5725,17 +5725,17 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t>Restablecimiento de contraseña</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Acceso privilegiado seguro para implementar VMS al reducir quién tiene acceso a los recursos a través de la gobernanza</t>
+          <t>Establecer el número de días antes de que se solicite a los usuarios que vuelvan a confirmar la información de autenticación no se establece en cero</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5752,7 +5752,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5760,7 +5760,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
+          <t>7ecbe48f-be64-4dd7-bf2e-8bbbc468155a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5771,23 +5771,23 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Restablecimiento de contraseña</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use varias máquinas virtuales para sus cargas de trabajo para una mejor disponibilidad </t>
+          <t>Establecer el número de métodos necesarios para restablecer la contraseña están seleccionados</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5798,7 +5798,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
+          <t>https://docs.microsoft.com/azure/active-directory/authentication/howto-sspr-deployment</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5806,7 +5806,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
+          <t>bc9164e9-909a-4ed8-a44c-f3b2b3818baf</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5817,23 +5817,23 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Implementar y probar una solución de recuperación ante desastres </t>
+          <t>No sincronice cuentas con el acceso con privilegios más alto a los recursos locales mientras sincroniza sus sistemas de identidad empresariales con directorios en la nube.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5844,7 +5844,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
+          <t>https://docs.microsoft.com/security/compass/identity#no-on-premises-admin-accounts-in-cloud-identity-providers</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,7 +5852,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
+          <t>87791be1-1eb0-48ed-8003-ad9bcf241b99</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5863,23 +5863,23 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Conjuntos de disponibilidad</t>
+          <t>Limitar el número de administradores globales a menos de 5</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5890,14 +5890,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#5-limit-the-number-of-global-administrators-to-less-than-5</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
+          <t>9e6efe9d-f28f-463b-9bff-b5080173e9fe</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5908,23 +5908,23 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Zonas de disponibilidad</t>
+          <t>Usar grupos para asignaciones de roles de Azure AD y delegar la asignación de roles</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5935,7 +5935,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#6-use-groups-for-azure-ad-role-assignments-and-delegate-the-role-assignment</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5943,7 +5943,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
+          <t>e0d968d3-87f6-41fb-a4f9-d852f1673f4c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5954,23 +5954,23 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta disponibilidad </t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tolerancia a fallos regional </t>
+          <t>Asegúrese de que todos los administradores de impacto crítico estén administrados por el directorio empresarial para seguir la aplicación de políticas de la organización.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5981,7 +5981,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#managed-accounts-for-admins</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5989,7 +5989,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
+          <t>00350863-4df6-4050-9cf1-cbaa6d58283e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6000,17 +6000,17 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Protección contra el malware</t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Instalar soluciones antimalware</t>
+          <t>Configurar revisiones de acceso periódicas para revocar permisos innecesarios a lo largo del tiempo</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6027,7 +6027,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices#4-configure-recurring-access-reviews-to-revoke-unneeded-permissions-over-time</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6035,7 +6035,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
+          <t>eae64d01-0d3a-4ae1-a89d-cc1c2ad3888f</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6046,23 +6046,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Protección contra el malware</t>
+          <t>Administración privilegiada</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Integre la solución antimalware con Security Center</t>
+          <t>Asegúrese de que los administradores de impacto crítico utilicen una estación de trabajo con protecciones de seguridad y supervisión elevadas</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6073,14 +6073,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/security/design-admins#admin-workstation-security</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
+          <t>922ac19f-916d-4697-b8ea-ded26bdd186f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6091,17 +6091,17 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Administrar actualizaciones de máquinas virtuales</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Mantenga actualizadas las máquinas virtuales mediante La administración de actualizaciones con Automatización de Azure</t>
+          <t>Establezca un único directorio empresarial para administrar las identidades de los empleados a tiempo completo y los recursos de la empresa.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6118,14 +6118,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#a-single-enterprise-directory</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
+          <t>346ad56f-bdb8-44db-8bcd-0a689af63f1e</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6136,23 +6136,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Administrar actualizaciones de máquinas virtuales</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que las imágenes de Windows para la implementación tengan el nivel más reciente de actualizaciones </t>
+          <t>Sincronice su identidad en la nube con sus sistemas de identidad existentes.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6163,14 +6163,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
+          <t>https://docs.microsoft.com/security/compass/identity#synchronized-identity-systems</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
+          <t>a46108cd-6a76-4749-ae69-b7bf61410010</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6181,17 +6181,17 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Administrar actualizaciones de máquinas virtuales</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Aplique rápidamente actualizaciones de seguridad a las máquinas virtuales con Microsoft Defender para la nube</t>
+          <t>Use los servicios de identidad en la nube para hospedar cuentas que no son de empleados, como proveedores, socios y clientes, en lugar de incluirlos en su directorio local.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6208,7 +6208,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
+          <t>https://docs.microsoft.com/security/compass/identity#cloud-provider-identity-source-for-third-parties</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>02145901-465d-438e-9309-ccbd979266bc</t>
+          <t>a1ab96ceb-c149-4ce2-bcad-3bd375ebfc7f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6227,17 +6227,17 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Cifre sus VHD</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Habilite el cifrado en sus máquinas virtuales</t>
+          <t>Deshabilite los protocolos heredados inseguros para los servicios orientados a Internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6254,14 +6254,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
+          <t>https://docs.microsoft.com/security/compass/identity#block-legacy-authentication</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
+          <t>343473ec-ed5c-49e1-98f4-cb09524a23cd</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6272,17 +6272,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Cifre sus VHD</t>
+          <t>Arrendatario</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agregar clave de cifrado de clave (KEK) para una capa adicional de seguridad para el cifrado </t>
+          <t>Habilitar el inicio de sesión único</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6299,7 +6299,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/identity-management-best-practices#enable-single-sign-on</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6307,7 +6307,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
+          <t>70dceb23-50c7-4d8d-bf53-8cc104c7dc44</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6318,23 +6318,23 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Cifre sus VHD</t>
+          <t>Configuración del usuario</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Tome una instantánea de los discos antes del cifrado para fines de reversión</t>
+          <t>Desactive 'Los usuarios pueden registrar aplicaciones'</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
       <c r="E121" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6345,7 +6345,7 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/delegate-app-roles</t>
         </is>
       </c>
       <c r="I121" s="16" t="n"/>
@@ -6353,7 +6353,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
+          <t>a2cf2149-d013-4a92-9ce5-74dccbd8ac2a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6364,17 +6364,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t>Configuración del usuario</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que solo el grupo de red central tiene permisos para los recursos de red </t>
+          <t>Restringir el acceso al portal administrativo (portal.azure.com) solo a los administradores</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6391,7 +6391,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/users-default-permissions</t>
         </is>
       </c>
       <c r="I122" s="16" t="n"/>
@@ -6399,7 +6399,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5173676a-e466-491e-a835-ad942223E138</t>
+          <t>aebca2a4-4da1-4dbf-9dd9-92481718d1dc</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6410,17 +6410,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t>Configuración del usuario</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Identifique y corrija las máquinas virtuales expuestas que permiten el acceso desde 'CUALQUIER' complemento de IP de origen</t>
+          <t>Desactiva la 'conexión de la cuenta de LinkedIn'</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6437,7 +6437,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
+          <t>https://docs.microsoft.com/azure/active-directory/enterprise-users/linkedin-integration</t>
         </is>
       </c>
       <c r="I123" s="16" t="n"/>
@@ -6445,7 +6445,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
+          <t>a1f62565-9ee5-4580-a382-49c931213dbd</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6456,17 +6456,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t>Reglas de análisis</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Restringir los puertos de administración (RDP, SSH) mediante el acceso justo a tiempo</t>
+          <t xml:space="preserve">El cliente ha habilitado las reglas de Analytics y ha configurado los incidentes </t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6483,7 +6483,7 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
+          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
         </is>
       </c>
       <c r="I124" s="16" t="n"/>
@@ -6491,7 +6491,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
+          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6502,17 +6502,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t xml:space="preserve">Arquitectura </t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Quitar el acceso a Internet e implementar servidores de salto para RDP</t>
+          <t>Todos los inquilinos que contienen tienen Sentinel habilitado en al menos un área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6529,7 +6529,7 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I125" s="16" t="n"/>
@@ -6537,7 +6537,7 @@
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
+          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6548,17 +6548,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t xml:space="preserve">Arquitectura </t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Elimine el inicio de sesión directo en los servidores que usan RDP / SSH de Internet e implemente VPN o ruta rápida</t>
+          <t>El cliente entiende la arquitectura de Sentinel</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6575,14 +6575,14 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
+          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
+          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6593,23 +6593,23 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>Comprobaciones de seguridad de VM</t>
+          <t>Centinela</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
+          <t xml:space="preserve">Arquitectura </t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Aproveche Azure Bastion como su agente RDP/SSH para mayor seguridad y reducción de la huella</t>
+          <t>El cliente sabe cómo monitorear incidentes en múltiples instancias de Sentinel</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
       <c r="E127" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6620,14 +6620,14 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
+          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6643,12 +6643,12 @@
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitectura </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Todos los inquilinos que contienen Sentinel tiene habilitado en al menos un área de trabajo de Log Analytics</t>
+          <t>Azure Active Directory en versión configurada y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6665,14 +6665,14 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>cd5d1e54-a297-459e-9968-0e78289c9356</t>
+          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6688,12 +6688,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitectura </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>El cliente entiende la arquitectura de Sentinel</t>
+          <t>Azure Active Directory Identity Protection está configurado y hoy se muestra 'Last Log Received'</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6710,14 +6710,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/best-practices-workspace-architecture</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>57d02bff-4564-4b0d-a34a-359836ee79d6</t>
+          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6733,18 +6733,18 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arquitectura </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>El cliente sabe cómo supervisar los incidentes en varias instancias de Sentinel</t>
+          <t>Azure Activity está configurado y 'Last Log Received' se muestra hoy</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6755,14 +6755,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/multiple-workspace-view</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e8f5c586-c7d9-4cdc-86ac-c075ef9b141a</t>
+          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6778,18 +6778,18 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Visión general</t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>No Hay incidencias abierto más de 24 horas</t>
+          <t>Microsoft Defender para la nube está configurado y 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
       <c r="E131" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6800,14 +6800,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>8989579e-76b8-497e-910A-7Da7be9966E1</t>
+          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6823,18 +6823,18 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Noticias y Guías</t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>A los clientes se les ha mostrado la pestaña Noticias y guías</t>
+          <t>Azure Firewall está configurado y se muestra hoy 'Last Log Received'</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
       <c r="E132" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6845,14 +6845,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
+          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -6868,18 +6868,18 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">UEBA </t>
+          <t>Conectores de datos</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>UEBA configurado (Sentinel/Settings/Settings/Configure UEBA)</t>
+          <t>El Firewall de Windows está configurado y el 'Último registro recibido' se muestra hoy</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
       <c r="E133" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6890,14 +6890,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
+          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory en configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Security Events está configurado con AMA y 'Last Log Received' se muestra hoy</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -6935,14 +6935,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-azure-active-directory</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>e69d8d9a-3eec-4218-b687-ab077adb49e5</t>
+          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Identity Protection está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Eventos de seguridad: compruebe que los equipos de Azure están conectados y envían datos al área de trabajo</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -6980,14 +6980,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-active-directory-identity-protection</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>b9603334-fdf8-4cc2-9318-db61171269f4</t>
+          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure Activity está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Eventos de seguridad: compruebe que los equipos que no son de Azure están conectados y envían datos al área de trabajo</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7025,14 +7025,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-activity</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>0b4aa3d3-e070-4327-9d4b-98b15b8a219a</t>
+          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender para Cloud está configurado y 'Last Log Received' se muestra hoy</t>
+          <t>Conector para AWS</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7070,14 +7070,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-defender-for-cloud</t>
+          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>8e13f9cc-bd46-4826-9abc-a264f9a19bfe</t>
+          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Conector para GCP</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7115,14 +7115,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#azure-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>9d55d04c-3c49-419c-a1b2-d1215ae114b9</t>
+          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7138,18 +7138,18 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Noticias y Guías</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Firewall de Windows está configurado y 'Último registro recibido' se muestra hoy</t>
+          <t>Al cliente se le ha mostrado la pestaña Noticias y guías</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7160,14 +7160,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-firewall</t>
+          <t>https://docs.microsoft.com/azure/sentinel/whats-new</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>34df585e-cccd-49bd-9ba0-cdb3b54eb2eb</t>
+          <t>5d3c4ada-97cb-43d1-925a-b225c6f4e068</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7183,18 +7183,18 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Visión general</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Security Events está configurado con AMA y 'Last Log Received' se muestra hoy</t>
+          <t>No hay incidentes abiertos más de 24 horas</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7205,14 +7205,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference#windows-security-events-via-ama</t>
+          <t>https://docs.microsoft.com/azure/sentinel/manage-soc-with-incident-metrics</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>03ddaa25-9271-48d2-bdb1-0725769ef669</t>
+          <t>8989579e-76b8-497e-910a-7da7be9966e1</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7228,18 +7228,18 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Configuración</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Eventos de seguridad: compruebe que los equipos de Azure están conectados y envían datos al área de trabajo</t>
+          <t>El cliente no tiene un límite diario habilitado</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
       <c r="E141" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7250,14 +7250,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>1a4834ac-9322-423e-ae80-b123081a5417</t>
+          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7273,18 +7273,18 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t xml:space="preserve">UEBA </t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Eventos de seguridad: compruebe que los equipos que no son de Azure están conectados y envían datos al área de trabajo</t>
+          <t>UEBA configurado (Sentinel/Settings/Settings/Configure UEBA)</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7295,14 +7295,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/sentinel/enable-entity-behavior-analytics</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>859c773e-7e26-4162-9b77-5a917e1f348e</t>
+          <t>5edddea8-a4b7-4cde-a4c6-1fc3fc14eea6</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7313,17 +7313,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conector para AWS</t>
+          <t>Control del acceso a máquinas virtuales mediante Azure Policy</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7340,14 +7340,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/connect-aws?tabs=s3</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>f354c27d-42e8-4bba-a868-155abb9163e9</t>
+          <t>0ac252b9-99a6-48af-a7c9-a8f821b8eb8c</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7358,23 +7358,23 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Conectores de datos</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Conector para GCP</t>
+          <t>Reduzca la variabilidad en la configuración e implementación de máquinas virtuales aprovechando las plantillas</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
       <c r="E144" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7385,14 +7385,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/data-connectors-reference</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/templates/syntax</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>909ae28c-84c3-43b6-a780-8bafe6c42149</t>
+          <t>0aa77e26-e4d5-4aea-a8dc-4e2436bc336d</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7403,23 +7403,23 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Reglas de análisis</t>
+          <t>Control de acceso</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">El cliente ha habilitado las reglas de Analytics y ha configurado incidentes </t>
+          <t>Proteja el acceso privilegiado para implementar VMS reduciendo quién tiene acceso a los recursos a través de la gobernanza</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
       <c r="E145" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7430,14 +7430,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/detect-threats-built-in</t>
+          <t>https://docs.microsoft.com/windows-server/identity/ad-ds/plan/security-best-practices/implementing-least-privilege-administrative-models</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>d413a923-c357-44d1-8028-ac6aae01e6a8</t>
+          <t>b5945bda-4333-44fd-b91c-234182b65275</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7448,23 +7448,23 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Centinela</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Configuración</t>
+          <t>Cifrar los VHD</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>El cliente no tiene un límite diario habilitado</t>
+          <t>Habilitar el cifrado en las máquinas virtuales</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
       <c r="E146" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7475,14 +7475,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/updates/controlling-data-volume-and-retention-in-log-analytics-2/</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>4de5df43-d299-4248-8718-d5d1e5f62565</t>
+          <t>ca274faa-19bf-439d-a5d4-4c7c8919ca1f</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7493,17 +7493,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Configuración</t>
+          <t>Cifrar los VHD</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Implementación de Azure Firewall Premium</t>
+          <t xml:space="preserve">Agregar clave de cifrado de clave (KEK) para una capa adicional de seguridad para el cifrado </t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7520,14 +7520,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/disk-encryption-key-vault#set-up-a-key-encryption-key-kek</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>9e3558fd-7724-49c9-9111-2d027fe412f7</t>
+          <t>6d5315ae-524b-4a34-b458-5e12139bd7bb</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7538,23 +7538,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Configuración</t>
+          <t>Cifrar los VHD</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Ajuste de cuatro cero/fuerza habilitado a través de Azure Firewall</t>
+          <t>Tomar una instantánea de los discos antes del cifrado para fines de reversión</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7565,14 +7565,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/tutorial-firewall-deploy-portal#create-a-default-route</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/snapshot-copy-managed-disk</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>4dc74a74-8b66-433a-b2a0-916a764980ad</t>
+          <t>012f7b95-e06e-4154-b2aa-3592828e6e20</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7583,17 +7583,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Control de acceso</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>RBAC establecido para habilitar solo usuarios autorizados</t>
+          <t xml:space="preserve">Use varias máquinas virtuales para sus cargas de trabajo para una mejor disponibilidad </t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7610,14 +7610,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/architecture/checklist/resiliency-per-service</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>0e278ee2-93c1-4bc3-92ba-aab7571849ab</t>
+          <t>269440b4-be3d-43e0-a432-76d4bdc015bc</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7628,17 +7628,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Configuración de diagnóstico</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnóstico habilitado y envío de métricas a un área de trabajo de Log Analytics </t>
+          <t xml:space="preserve">Implementar y probar una solución de recuperación ante desastres </t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7655,14 +7655,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/firewall-diagnostics</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-azure-vms-first-look-arm</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>8093dc9f-c9d1-4bb7-9b36-a5a67fbb9ed5</t>
+          <t>f219e4a1-eb58-4879-935d-227886d30b66</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7673,23 +7673,23 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Los concentradores y las redes virtuales están protegidos o conectados a través de Firewall Premium</t>
+          <t>Conjuntos de disponibilidad</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7700,14 +7700,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/availability-set-overview</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b35478c3-4798-416b-8863-cffe1cac599e</t>
+          <t>c57be595-1900-4838-95c5-86cb291ec16a</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7718,23 +7718,23 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Los controles de acceso están configurados (RBAC)</t>
+          <t>Zonas de disponibilidad</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7745,14 +7745,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-network-security/role-based-access-control-for-azure-firewall/ba-p/2245598</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-overview?context=/azure/virtual-machines/context/context</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>f0d5a73d-d4de-436c-8c81-770afbc4c0e4</t>
+          <t>1d076ef9-f141-4acd-ae57-9377bcdb3751</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7763,23 +7763,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Alta disponibilidad </t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Directiva: la directiva principal está configurada </t>
+          <t xml:space="preserve">Tolerancia a fallos regional </t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7790,14 +7790,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/policy-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/resiliency/recovery-loss-azure-region</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>5c3a87af-4a79-41f8-a39b-da47768e14c1</t>
+          <t>ab2ac1fa-d66e-415d-9d5a-2adb2c3e2326</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7808,17 +7808,17 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Administrar actualizaciones de VM</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Directiva: se definen las colecciones de reglas</t>
+          <t>Mantenga las máquinas virtuales actualizadas mediante Update Management with Azure Automation</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -7835,14 +7835,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>15675c1e-a55b-446a-a48f-f8ae7d7e4b47</t>
+          <t>7a0177a2-b594-45bd-a433-34fdf91c2341</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -7853,23 +7853,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Administrar actualizaciones de VM</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Política: Se definen las políticas de DNAT</t>
+          <t xml:space="preserve">Asegúrese de que las imágenes de Windows para la implementación tengan el nivel más reciente de actualizaciones </t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7880,14 +7880,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/automatic-vm-guest-patching</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>5b6c8bcb-f59b-4ce6-9de8-a03f97879468</t>
+          <t>c6fa96b9-6ad8-4840-af37-2734c876ba28</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -7898,17 +7898,17 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Administrar actualizaciones de VM</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Se definen las reglas de red</t>
+          <t>Aplique rápidamente actualizaciones de seguridad a las máquinas virtuales con Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -7925,14 +7925,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>https://docs.microsoft.com/azure/security-center/asset-inventory</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d66a786d-60e9-46c9-9ad8-855d04c2b39c</t>
+          <t>02145901-465d-438e-9309-ccbd979266bc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -7943,17 +7943,17 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Protéjase contra el malware</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Directiva: Se definen las reglas de aplicación</t>
+          <t>Instalar soluciones antimalware</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -7970,14 +7970,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/features</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/antimalware</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>986bb2c1-2149-4a11-9b5e-3df574ecccd9</t>
+          <t>af225ca4-4e16-496f-bdde-ace4cb1deb4c</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -7988,23 +7988,23 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t>Protéjase contra el malware</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>DNS: Característica entendida y aplicada o no aplicada</t>
+          <t>Integrar la solución antimalware con Security Center</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8015,14 +8015,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/dns-details</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>793a6bcd-a3b5-40eb-8eb0-3dd95d58d7c8</t>
+          <t>650c3fc1-4eeb-4b36-a382-9e3eec218368</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8033,17 +8033,17 @@
     <row r="159" ht="16.5" customHeight="1" s="13">
       <c r="A159" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Inteligencia de amenazas: Configurado para alertar y denegar</t>
+          <t xml:space="preserve">Asegúrese de que solo el grupo de red central tiene permisos para los recursos de red </t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8060,14 +8060,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings</t>
+          <t>https://docs.microsoft.com/azure/role-based-access-control/built-in-roles</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d622f54b-29ba-4de3-aad1-e8c28ec93666</t>
+          <t>5173676a-e466-491e-a835-ad942223e138</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8078,17 +8078,17 @@
     <row r="160" ht="16.5" customHeight="1" s="13">
       <c r="A160" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Inteligencia de amenazas: Lista permitida (justifique si se están utilizando, es decir, rendimiento)</t>
+          <t>Identifique y corrija las máquinas virtuales expuestas que permiten el acceso desde "CUALQUIER" dirección IP de origen</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8105,14 +8105,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall-manager/threat-intelligence-settings#allowlist-addresses</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-partner-integration</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>7313b005-674b-41e9-94a4-59c373e7ed61</t>
+          <t>10523081-a941-4741-9833-ff7ad7c6d373</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8123,17 +8123,17 @@
     <row r="161" ht="16.5" customHeight="1" s="13">
       <c r="A161" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>TLS habilitado</t>
+          <t>Restringir los puertos de administración (RDP, SSH) mediante el acceso Just-in-Time</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8150,14 +8150,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/premium-certificates</t>
+          <t>https://docs.microsoft.com/azure/security-center/security-center-just-in-time</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>623b365a-917e-4cbe-98eb-d54cd7df2e8b</t>
+          <t>75a91be1-f388-4f03-a4d2-cd463cbbbc86</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8168,17 +8168,17 @@
     <row r="162" ht="16.5" customHeight="1" s="13">
       <c r="A162" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>IDPS habilitados</t>
+          <t>Eliminar el acceso a Internet e implementar servidores jump para RDP</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8195,14 +8195,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/rule-processing</t>
+          <t>http://docs.microsoft.com/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>bac35715-59ab-4915-9e99-08aed8c44ce3</t>
+          <t>8295abc9-1a4e-4da0-bae2-cc84c47b6b78</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8213,17 +8213,17 @@
     <row r="163" ht="16.5" customHeight="1" s="13">
       <c r="A163" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Administrador de cortafuegos</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">SNAT: Configurado </t>
+          <t>Elimine el inicio de sesión directo en servidores que usan RDP / SSH de Internet e implemente VPN o ruta rápida</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8240,14 +8240,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/snat-private-range</t>
+          <t>https://docs.microsoft.com/azure/vpn-gateway/vpn-gateway-about-forced-tunneling</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>b2b3808b-9fa1-4cf1-849d-003a923ce474</t>
+          <t>1cbafe6c-4658-49d4-98a9-27c3974d1102</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8258,23 +8258,23 @@
     <row r="164" ht="16.5" customHeight="1" s="13">
       <c r="A164" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall</t>
+          <t>Comprobaciones de seguridad de VM</t>
         </is>
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Protección DDOS</t>
+          <t xml:space="preserve">Restringir la conexión directa a Internet </t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Habilitado para IP públicas de Firewall</t>
+          <t>Aproveche Azure Bastion como agente RDP/SSH para mayor seguridad y reducción del espacio</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8285,14 +8285,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/ddos-best-practices</t>
+          <t>https://docs.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>dbcbd8ac-2aae-4bca-8a43-da1dae2cc992</t>
+          <t>dad6aae1-1e6b-484e-b5df-47d2d92881b1</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8330,14 +8330,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8375,14 +8375,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8420,14 +8420,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8465,14 +8465,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8510,14 +8510,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8562,7 +8562,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8600,14 +8600,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8616,360 +8616,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10527,7 +11247,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10611,7 +11331,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10667,26 +11387,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F165" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F165" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10797,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Esta comprobación aún no se ha analizado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -10824,7 +11562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Azure Networking</t>
+          <t>Redes de Azure</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -10871,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
